--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>747153.9973909792</v>
+        <v>742629.6254884558</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30165742.5381523</v>
+        <v>30165742.53815231</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7430358.925170777</v>
+        <v>7430358.925170779</v>
       </c>
     </row>
     <row r="9">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>212.6938934752484</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>131.6860511822911</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>274.8725950469874</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T11" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.6149958056585</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>103.1570695729984</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.5632308897331</v>
@@ -1578,7 +1578,7 @@
         <v>7.146508835688699</v>
       </c>
       <c r="S13" t="n">
-        <v>153.1543937174461</v>
+        <v>128.8171935431327</v>
       </c>
       <c r="T13" t="n">
         <v>237.1598548985255</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>145.5140857742911</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H14" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.6149958056585</v>
@@ -1669,13 +1669,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>139.7331329869765</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>134.5632308897331</v>
       </c>
       <c r="I16" t="n">
-        <v>72.40471915577928</v>
+        <v>51.68603215177107</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.146508835688699</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>153.1543937174461</v>
@@ -1821,16 +1821,16 @@
         <v>237.1598548985255</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3347814691945</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>205.0081118723383</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>135.1129476749645</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.3411154877793</v>
@@ -1897,22 +1897,22 @@
         <v>58.78416952972844</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>60.92091256243414</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H18" t="n">
         <v>42.74230092603217</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T18" t="n">
         <v>136.2459098068972</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>134.5632308897331</v>
       </c>
       <c r="I19" t="n">
-        <v>72.40471915577928</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.146508835688699</v>
+        <v>7.146508835688685</v>
       </c>
       <c r="S19" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1598548985255</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3347814691945</v>
+        <v>217.1999344469513</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.443783231261555</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2095,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3411154877793</v>
+        <v>35.64503158443851</v>
       </c>
       <c r="H20" t="n">
-        <v>229.319732952314</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H21" t="n">
         <v>42.74230092603217</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T21" t="n">
         <v>136.2459098068972</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>121.6256045848076</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.7176533411321</v>
@@ -2259,7 +2259,7 @@
         <v>134.5632308897331</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.40471915577928</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.146508835688699</v>
+        <v>7.146508835688685</v>
       </c>
       <c r="S22" t="n">
         <v>153.1543937174461</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>213.4676632110265</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>117.2380063340829</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>274.8725950469874</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>204.2244764963771</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>15.52699067284371</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H25" t="n">
-        <v>107.3635120712415</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I25" t="n">
         <v>72.40471915577928</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.146508835688699</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>153.1543937174461</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1598548985255</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3347814691945</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>183.9448139072977</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.8725950469874</v>
+        <v>138.8750271411018</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H27" t="n">
         <v>42.74230092603217</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T27" t="n">
         <v>136.2459098068972</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.8033072057318</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>62.21781274839849</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.40471915577928</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.146508835688685</v>
       </c>
       <c r="S28" t="n">
         <v>153.1543937174461</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>92.36375636733104</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H29" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T29" t="n">
         <v>210.1602450484006</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>178.4160986132369</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H30" t="n">
         <v>42.74230092603217</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T30" t="n">
         <v>136.2459098068972</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2967,10 +2967,10 @@
         <v>163.7176533411321</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.40471915577928</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.146508835688699</v>
+        <v>6.208323955838818</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>237.1598548985255</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3347814691945</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>100.2261273917804</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>274.748767627064</v>
+        <v>388.9162078299257</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3122,7 +3122,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H33" t="n">
         <v>42.74230092603217</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T33" t="n">
         <v>136.2459098068972</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>156.0500459907508</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.146508835688699</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>153.1543937174461</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1598548985255</v>
+        <v>182.8778770266595</v>
       </c>
       <c r="U34" t="n">
         <v>277.3347814691945</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.84825531388272</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>355.8215585042356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H36" t="n">
         <v>42.74230092603217</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T36" t="n">
         <v>136.2459098068972</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>31.21620236449942</v>
+        <v>16.66190257283651</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1598548985255</v>
       </c>
       <c r="U37" t="n">
         <v>277.3347814691945</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>317.5701902153751</v>
       </c>
       <c r="H38" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.78416952972842</v>
       </c>
       <c r="T38" t="n">
         <v>210.1602450484006</v>
@@ -3565,13 +3565,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>139.7331329869765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H39" t="n">
         <v>42.74230092603217</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T39" t="n">
         <v>136.2459098068972</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>11.64456117096753</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H40" t="n">
         <v>134.5632308897331</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.40471915577926</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1598548985255</v>
+        <v>233.8043673247739</v>
       </c>
       <c r="U40" t="n">
         <v>277.3347814691945</v>
@@ -3723,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>53.94818069072718</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.78416952972844</v>
+        <v>58.78416952972842</v>
       </c>
       <c r="T41" t="n">
-        <v>129.2357092561122</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H42" t="n">
         <v>42.74230092603217</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T42" t="n">
         <v>136.2459098068972</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>90.0992136151241</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>89.78109465296079</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I43" t="n">
-        <v>72.40471915577928</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1598548985255</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3347814691945</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>69.34844584196492</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>128.1653138548515</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.78416952972844</v>
+        <v>58.78416952972842</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4070,7 +4070,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H45" t="n">
         <v>42.74230092603217</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T45" t="n">
         <v>136.2459098068972</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>134.5632308897331</v>
       </c>
       <c r="I46" t="n">
-        <v>72.40471915577928</v>
+        <v>72.40471915577926</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.146508835688692</v>
+        <v>7.146508835688678</v>
       </c>
       <c r="S46" t="n">
         <v>153.1543937174461</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1598548985255</v>
       </c>
       <c r="U46" t="n">
         <v>277.3347814691945</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>195.8211614627413</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>147.0350646923176</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>452.6015128817619</v>
+        <v>1382.844418833581</v>
       </c>
       <c r="C11" t="n">
-        <v>452.6015128817619</v>
+        <v>1382.844418833581</v>
       </c>
       <c r="D11" t="n">
-        <v>452.6015128817619</v>
+        <v>959.5517980185812</v>
       </c>
       <c r="E11" t="n">
-        <v>452.6015128817619</v>
+        <v>744.7094813769161</v>
       </c>
       <c r="F11" t="n">
-        <v>452.6015128817619</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="G11" t="n">
         <v>319.5852995663163</v>
       </c>
       <c r="H11" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I11" t="n">
-        <v>82.33329152904085</v>
+        <v>82.33329152904071</v>
       </c>
       <c r="J11" t="n">
         <v>217.4391490657154</v>
       </c>
       <c r="K11" t="n">
-        <v>428.172816147586</v>
+        <v>428.1728161475862</v>
       </c>
       <c r="L11" t="n">
-        <v>695.6031008100825</v>
+        <v>695.6031008100829</v>
       </c>
       <c r="M11" t="n">
-        <v>998.3171043810844</v>
+        <v>998.3171043810846</v>
       </c>
       <c r="N11" t="n">
-        <v>1306.679080869172</v>
+        <v>1306.679080869173</v>
       </c>
       <c r="O11" t="n">
         <v>1595.689571197982</v>
       </c>
       <c r="P11" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q11" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R11" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S11" t="n">
-        <v>2096.810683013422</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="T11" t="n">
-        <v>1884.527607206957</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="U11" t="n">
-        <v>1626.330641746696</v>
+        <v>1779.235768533234</v>
       </c>
       <c r="V11" t="n">
-        <v>1268.841226872945</v>
+        <v>1779.235768533234</v>
       </c>
       <c r="W11" t="n">
-        <v>872.449877173292</v>
+        <v>1382.844418833581</v>
       </c>
       <c r="X11" t="n">
-        <v>872.449877173292</v>
+        <v>1382.844418833581</v>
       </c>
       <c r="Y11" t="n">
-        <v>872.449877173292</v>
+        <v>1382.844418833581</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H12" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I12" t="n">
-        <v>61.57150621104948</v>
+        <v>61.5715062110495</v>
       </c>
       <c r="J12" t="n">
         <v>138.9817292615982</v>
       </c>
       <c r="K12" t="n">
-        <v>283.9882891917075</v>
+        <v>575.2886204299217</v>
       </c>
       <c r="L12" t="n">
-        <v>486.4949168764135</v>
+        <v>777.7952481146278</v>
       </c>
       <c r="M12" t="n">
-        <v>746.4361815344978</v>
+        <v>1017.256422080117</v>
       </c>
       <c r="N12" t="n">
         <v>1265.39682558032</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>858.6351563183525</v>
+        <v>414.3115219330052</v>
       </c>
       <c r="C13" t="n">
-        <v>858.6351563183525</v>
+        <v>414.3115219330052</v>
       </c>
       <c r="D13" t="n">
-        <v>754.4360961436066</v>
+        <v>250.994749059776</v>
       </c>
       <c r="E13" t="n">
-        <v>588.2278902964601</v>
+        <v>250.994749059776</v>
       </c>
       <c r="F13" t="n">
-        <v>416.3661160710205</v>
+        <v>250.994749059776</v>
       </c>
       <c r="G13" t="n">
-        <v>250.9947490597759</v>
+        <v>250.994749059776</v>
       </c>
       <c r="H13" t="n">
-        <v>115.072293615601</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="I13" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="J13" t="n">
-        <v>82.8719547399968</v>
+        <v>82.87195473999681</v>
       </c>
       <c r="K13" t="n">
         <v>410.2429576506625</v>
@@ -5208,43 +5208,43 @@
         <v>893.9771139592277</v>
       </c>
       <c r="M13" t="n">
-        <v>1062.529155944452</v>
+        <v>1007.687113568093</v>
       </c>
       <c r="N13" t="n">
-        <v>1174.812233876681</v>
+        <v>1119.970191500322</v>
       </c>
       <c r="O13" t="n">
-        <v>1652.925277243978</v>
+        <v>1598.083234867619</v>
       </c>
       <c r="P13" t="n">
-        <v>2048.502628155005</v>
+        <v>1993.660585778646</v>
       </c>
       <c r="Q13" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R13" t="n">
-        <v>2089.591987219797</v>
+        <v>2089.591987219798</v>
       </c>
       <c r="S13" t="n">
-        <v>1934.890579424397</v>
+        <v>1959.473609903502</v>
       </c>
       <c r="T13" t="n">
-        <v>1695.335170435987</v>
+        <v>1719.918200915092</v>
       </c>
       <c r="U13" t="n">
-        <v>1415.199027537811</v>
+        <v>1439.782058016916</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.48756014584</v>
+        <v>1158.070590624945</v>
       </c>
       <c r="W13" t="n">
-        <v>858.6351563183525</v>
+        <v>883.2181867974581</v>
       </c>
       <c r="X13" t="n">
-        <v>858.6351563183525</v>
+        <v>640.6542902432632</v>
       </c>
       <c r="Y13" t="n">
-        <v>858.6351563183525</v>
+        <v>414.3115219330052</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319.5852995663163</v>
+        <v>1016.409083614374</v>
       </c>
       <c r="C14" t="n">
-        <v>319.5852995663163</v>
+        <v>869.4251585898373</v>
       </c>
       <c r="D14" t="n">
-        <v>319.5852995663163</v>
+        <v>869.4251585898373</v>
       </c>
       <c r="E14" t="n">
-        <v>319.5852995663163</v>
+        <v>869.4251585898373</v>
       </c>
       <c r="F14" t="n">
-        <v>319.5852995663163</v>
+        <v>444.3009767792375</v>
       </c>
       <c r="G14" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H14" t="n">
         <v>41.93621366026846</v>
       </c>
       <c r="I14" t="n">
-        <v>82.33329152904071</v>
+        <v>82.33329152904082</v>
       </c>
       <c r="J14" t="n">
         <v>217.4391490657154</v>
       </c>
       <c r="K14" t="n">
-        <v>428.1728161475862</v>
+        <v>428.1728161475861</v>
       </c>
       <c r="L14" t="n">
-        <v>695.6031008100829</v>
+        <v>695.6031008100828</v>
       </c>
       <c r="M14" t="n">
         <v>998.3171043810846</v>
@@ -5305,25 +5305,25 @@
         <v>2096.810683013423</v>
       </c>
       <c r="S14" t="n">
-        <v>2096.810683013423</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="T14" t="n">
-        <v>1884.527607206958</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="U14" t="n">
-        <v>1626.330641746697</v>
+        <v>1779.235768533234</v>
       </c>
       <c r="V14" t="n">
-        <v>1268.841226872946</v>
+        <v>1421.746353659483</v>
       </c>
       <c r="W14" t="n">
-        <v>872.4498771732929</v>
+        <v>1421.746353659483</v>
       </c>
       <c r="X14" t="n">
-        <v>460.7298783410401</v>
+        <v>1421.746353659483</v>
       </c>
       <c r="Y14" t="n">
-        <v>319.5852995663163</v>
+        <v>1016.409083614374</v>
       </c>
     </row>
     <row r="15">
@@ -5357,16 +5357,16 @@
         <v>61.5715062110495</v>
       </c>
       <c r="J15" t="n">
-        <v>138.9817292615982</v>
+        <v>430.2820604998124</v>
       </c>
       <c r="K15" t="n">
-        <v>283.9882891917075</v>
+        <v>575.2886204299217</v>
       </c>
       <c r="L15" t="n">
-        <v>486.4949168764135</v>
+        <v>777.7952481146278</v>
       </c>
       <c r="M15" t="n">
-        <v>746.4361815344976</v>
+        <v>1017.256422080117</v>
       </c>
       <c r="N15" t="n">
         <v>1265.39682558032</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.4086592646906</v>
+        <v>903.42609845596</v>
       </c>
       <c r="C16" t="n">
-        <v>754.4360961436066</v>
+        <v>731.4535353348759</v>
       </c>
       <c r="D16" t="n">
-        <v>754.4360961436066</v>
+        <v>568.1367624616466</v>
       </c>
       <c r="E16" t="n">
-        <v>588.2278902964601</v>
+        <v>401.9285566145002</v>
       </c>
       <c r="F16" t="n">
-        <v>416.3661160710205</v>
+        <v>230.0667823890606</v>
       </c>
       <c r="G16" t="n">
-        <v>250.994749059776</v>
+        <v>230.0667823890606</v>
       </c>
       <c r="H16" t="n">
-        <v>115.0722936156011</v>
+        <v>94.14432694488571</v>
       </c>
       <c r="I16" t="n">
         <v>41.93621366026846</v>
@@ -5439,49 +5439,49 @@
         <v>82.87195473999681</v>
       </c>
       <c r="K16" t="n">
-        <v>410.2429576506625</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L16" t="n">
-        <v>797.4456589576887</v>
+        <v>458.2917936300585</v>
       </c>
       <c r="M16" t="n">
-        <v>911.1556585665542</v>
+        <v>977.2524376758806</v>
       </c>
       <c r="N16" t="n">
-        <v>1023.438736498783</v>
+        <v>1487.56843844999</v>
       </c>
       <c r="O16" t="n">
-        <v>1501.55177986608</v>
+        <v>1965.681481817286</v>
       </c>
       <c r="P16" t="n">
-        <v>1897.129130777107</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q16" t="n">
         <v>2096.810683013423</v>
       </c>
       <c r="R16" t="n">
-        <v>2089.591987219798</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S16" t="n">
-        <v>1934.890579424398</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="T16" t="n">
-        <v>1695.335170435988</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="U16" t="n">
-        <v>1415.199027537812</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.48756014584</v>
+        <v>1420.842398837642</v>
       </c>
       <c r="W16" t="n">
-        <v>926.4086592646906</v>
+        <v>1145.989995010155</v>
       </c>
       <c r="X16" t="n">
-        <v>926.4086592646906</v>
+        <v>903.42609845596</v>
       </c>
       <c r="Y16" t="n">
-        <v>926.4086592646906</v>
+        <v>903.42609845596</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1283.551969420092</v>
+        <v>1147.927002537428</v>
       </c>
       <c r="C17" t="n">
-        <v>1283.551969420092</v>
+        <v>1147.927002537428</v>
       </c>
       <c r="D17" t="n">
-        <v>1283.551969420092</v>
+        <v>1147.927002537428</v>
       </c>
       <c r="E17" t="n">
-        <v>1147.074244495885</v>
+        <v>721.9500626852854</v>
       </c>
       <c r="F17" t="n">
         <v>721.9500626852854</v>
@@ -5509,22 +5509,22 @@
         <v>319.5852995663163</v>
       </c>
       <c r="H17" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I17" t="n">
-        <v>82.33329152904071</v>
+        <v>82.33329152904088</v>
       </c>
       <c r="J17" t="n">
-        <v>217.4391490657154</v>
+        <v>217.4391490657155</v>
       </c>
       <c r="K17" t="n">
-        <v>428.1728161475862</v>
+        <v>428.1728161475863</v>
       </c>
       <c r="L17" t="n">
-        <v>695.6031008100829</v>
+        <v>695.603100810083</v>
       </c>
       <c r="M17" t="n">
-        <v>998.3171043810846</v>
+        <v>998.3171043810844</v>
       </c>
       <c r="N17" t="n">
         <v>1306.679080869173</v>
@@ -5533,34 +5533,34 @@
         <v>1595.689571197982</v>
       </c>
       <c r="P17" t="n">
-        <v>1836.746925560032</v>
+        <v>1836.746925560031</v>
       </c>
       <c r="Q17" t="n">
-        <v>2009.942888284124</v>
+        <v>2009.942888284123</v>
       </c>
       <c r="R17" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="S17" t="n">
         <v>2037.432733993495</v>
       </c>
       <c r="T17" t="n">
-        <v>2037.432733993495</v>
+        <v>1825.149658187029</v>
       </c>
       <c r="U17" t="n">
-        <v>2037.432733993495</v>
+        <v>1566.952692726768</v>
       </c>
       <c r="V17" t="n">
-        <v>1679.943319119745</v>
+        <v>1209.463277853018</v>
       </c>
       <c r="W17" t="n">
-        <v>1283.551969420092</v>
+        <v>1209.463277853018</v>
       </c>
       <c r="X17" t="n">
-        <v>1283.551969420092</v>
+        <v>1209.463277853018</v>
       </c>
       <c r="Y17" t="n">
-        <v>1283.551969420092</v>
+        <v>1147.927002537428</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H18" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I18" t="n">
         <v>61.5715062110495</v>
       </c>
       <c r="J18" t="n">
-        <v>430.2820604998124</v>
+        <v>430.282060499812</v>
       </c>
       <c r="K18" t="n">
-        <v>575.2886204299217</v>
+        <v>575.2886204299214</v>
       </c>
       <c r="L18" t="n">
-        <v>777.7952481146278</v>
+        <v>777.7952481146275</v>
       </c>
       <c r="M18" t="n">
         <v>1017.256422080117</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.3661160710205</v>
+        <v>844.7275779571477</v>
       </c>
       <c r="C19" t="n">
-        <v>416.3661160710205</v>
+        <v>672.7550148360637</v>
       </c>
       <c r="D19" t="n">
-        <v>416.3661160710205</v>
+        <v>509.4382419628344</v>
       </c>
       <c r="E19" t="n">
-        <v>416.3661160710205</v>
+        <v>343.2300361156879</v>
       </c>
       <c r="F19" t="n">
-        <v>416.3661160710205</v>
+        <v>343.2300361156879</v>
       </c>
       <c r="G19" t="n">
-        <v>250.994749059776</v>
+        <v>177.8586691044433</v>
       </c>
       <c r="H19" t="n">
-        <v>115.0722936156011</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I19" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="J19" t="n">
-        <v>160.7936713882177</v>
+        <v>82.87195473999682</v>
       </c>
       <c r="K19" t="n">
-        <v>352.2599616246966</v>
+        <v>410.2429576506626</v>
       </c>
       <c r="L19" t="n">
-        <v>835.9941179332618</v>
+        <v>893.9771139592278</v>
       </c>
       <c r="M19" t="n">
-        <v>1354.954761979084</v>
+        <v>1412.93775800505</v>
       </c>
       <c r="N19" t="n">
         <v>1865.270762753193</v>
@@ -5694,31 +5694,31 @@
         <v>2048.502628155006</v>
       </c>
       <c r="Q19" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="R19" t="n">
-        <v>2089.591987219798</v>
+        <v>2089.591987219797</v>
       </c>
       <c r="S19" t="n">
-        <v>1934.890579424398</v>
+        <v>2089.591987219797</v>
       </c>
       <c r="T19" t="n">
-        <v>1695.335170435988</v>
+        <v>2089.591987219797</v>
       </c>
       <c r="U19" t="n">
-        <v>1415.199027537812</v>
+        <v>1870.198114041059</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.48756014584</v>
+        <v>1588.486646649088</v>
       </c>
       <c r="W19" t="n">
-        <v>858.6351563183534</v>
+        <v>1313.634242821601</v>
       </c>
       <c r="X19" t="n">
-        <v>616.0712597641585</v>
+        <v>1071.070346267406</v>
       </c>
       <c r="Y19" t="n">
-        <v>606.5320847830862</v>
+        <v>844.7275779571477</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1527.038192333206</v>
+        <v>1779.235768533234</v>
       </c>
       <c r="C20" t="n">
-        <v>1527.038192333206</v>
+        <v>1352.335038546534</v>
       </c>
       <c r="D20" t="n">
-        <v>1527.038192333206</v>
+        <v>929.0424177315344</v>
       </c>
       <c r="E20" t="n">
-        <v>1101.061252481064</v>
+        <v>503.065477879392</v>
       </c>
       <c r="F20" t="n">
-        <v>675.9370706704638</v>
+        <v>77.94129606879221</v>
       </c>
       <c r="G20" t="n">
-        <v>273.5723075514947</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H20" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I20" t="n">
-        <v>82.33329152904082</v>
+        <v>82.33329152904071</v>
       </c>
       <c r="J20" t="n">
         <v>217.4391490657154</v>
       </c>
       <c r="K20" t="n">
-        <v>428.1728161475861</v>
+        <v>428.1728161475862</v>
       </c>
       <c r="L20" t="n">
-        <v>695.6031008100828</v>
+        <v>695.6031008100829</v>
       </c>
       <c r="M20" t="n">
-        <v>998.3171043810846</v>
+        <v>998.3171043810848</v>
       </c>
       <c r="N20" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O20" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P20" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q20" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R20" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S20" t="n">
-        <v>2096.810683013422</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="T20" t="n">
-        <v>1884.527607206957</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="U20" t="n">
-        <v>1884.527607206957</v>
+        <v>1779.235768533234</v>
       </c>
       <c r="V20" t="n">
-        <v>1527.038192333206</v>
+        <v>1779.235768533234</v>
       </c>
       <c r="W20" t="n">
-        <v>1527.038192333206</v>
+        <v>1779.235768533234</v>
       </c>
       <c r="X20" t="n">
-        <v>1527.038192333206</v>
+        <v>1779.235768533234</v>
       </c>
       <c r="Y20" t="n">
-        <v>1527.038192333206</v>
+        <v>1779.235768533234</v>
       </c>
     </row>
     <row r="21">
@@ -5825,19 +5825,19 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H21" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I21" t="n">
-        <v>85.02881205546133</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J21" t="n">
-        <v>162.43903510601</v>
+        <v>324.8265602149064</v>
       </c>
       <c r="K21" t="n">
-        <v>469.8331201450159</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L21" t="n">
-        <v>672.339747829722</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M21" t="n">
         <v>911.8009217952109</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.2923880080946</v>
+        <v>917.8636579124803</v>
       </c>
       <c r="C22" t="n">
-        <v>632.2923880080946</v>
+        <v>745.8910947913963</v>
       </c>
       <c r="D22" t="n">
-        <v>632.2923880080946</v>
+        <v>582.574321918167</v>
       </c>
       <c r="E22" t="n">
-        <v>466.0841821609481</v>
+        <v>416.3661160710205</v>
       </c>
       <c r="F22" t="n">
-        <v>343.2300361156879</v>
+        <v>416.3661160710205</v>
       </c>
       <c r="G22" t="n">
-        <v>177.8586691044433</v>
+        <v>250.994749059776</v>
       </c>
       <c r="H22" t="n">
-        <v>41.93621366026844</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="I22" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="J22" t="n">
-        <v>160.7936713882177</v>
+        <v>82.87195473999682</v>
       </c>
       <c r="K22" t="n">
-        <v>488.1646742988834</v>
+        <v>410.2429576506626</v>
       </c>
       <c r="L22" t="n">
-        <v>971.8988306074486</v>
+        <v>543.568511898631</v>
       </c>
       <c r="M22" t="n">
-        <v>1085.608830216314</v>
+        <v>1062.529155944453</v>
       </c>
       <c r="N22" t="n">
-        <v>1197.891908148543</v>
+        <v>1174.812233876682</v>
       </c>
       <c r="O22" t="n">
-        <v>1501.551779866079</v>
+        <v>1652.925277243979</v>
       </c>
       <c r="P22" t="n">
-        <v>1897.129130777106</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q22" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R22" t="n">
-        <v>2089.591987219797</v>
+        <v>2089.591987219798</v>
       </c>
       <c r="S22" t="n">
-        <v>1934.890579424397</v>
+        <v>1934.890579424398</v>
       </c>
       <c r="T22" t="n">
-        <v>1695.335170435987</v>
+        <v>1695.335170435988</v>
       </c>
       <c r="U22" t="n">
-        <v>1415.199027537811</v>
+        <v>1415.199027537812</v>
       </c>
       <c r="V22" t="n">
         <v>1133.48756014584</v>
       </c>
       <c r="W22" t="n">
-        <v>858.6351563183525</v>
+        <v>917.8636579124803</v>
       </c>
       <c r="X22" t="n">
-        <v>858.6351563183525</v>
+        <v>917.8636579124803</v>
       </c>
       <c r="Y22" t="n">
-        <v>632.2923880080946</v>
+        <v>917.8636579124803</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1691.473412968313</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="C23" t="n">
-        <v>1691.473412968313</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="D23" t="n">
-        <v>1573.051184348028</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="E23" t="n">
-        <v>1147.074244495885</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="F23" t="n">
-        <v>721.9500626852854</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="G23" t="n">
         <v>319.5852995663163</v>
@@ -5986,28 +5986,28 @@
         <v>41.93621366026846</v>
       </c>
       <c r="I23" t="n">
-        <v>82.33329152904082</v>
+        <v>82.33329152904105</v>
       </c>
       <c r="J23" t="n">
-        <v>217.4391490657154</v>
+        <v>217.4391490657156</v>
       </c>
       <c r="K23" t="n">
-        <v>428.1728161475861</v>
+        <v>428.1728161475864</v>
       </c>
       <c r="L23" t="n">
-        <v>695.6031008100828</v>
+        <v>695.603100810083</v>
       </c>
       <c r="M23" t="n">
-        <v>998.3171043810846</v>
+        <v>998.3171043810847</v>
       </c>
       <c r="N23" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O23" t="n">
-        <v>1595.689571197983</v>
+        <v>1595.689571197982</v>
       </c>
       <c r="P23" t="n">
-        <v>1836.746925560032</v>
+        <v>1836.746925560031</v>
       </c>
       <c r="Q23" t="n">
         <v>2009.942888284124</v>
@@ -6019,22 +6019,22 @@
         <v>2096.810683013423</v>
       </c>
       <c r="T23" t="n">
-        <v>2096.810683013423</v>
+        <v>1890.523333017082</v>
       </c>
       <c r="U23" t="n">
-        <v>2096.810683013423</v>
+        <v>1890.523333017082</v>
       </c>
       <c r="V23" t="n">
-        <v>2096.810683013423</v>
+        <v>1533.033918143332</v>
       </c>
       <c r="W23" t="n">
-        <v>2096.810683013423</v>
+        <v>1136.642568443679</v>
       </c>
       <c r="X23" t="n">
-        <v>2096.810683013423</v>
+        <v>724.9225696114261</v>
       </c>
       <c r="Y23" t="n">
-        <v>1691.473412968313</v>
+        <v>319.5852995663163</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>41.93621366026846</v>
       </c>
       <c r="I24" t="n">
-        <v>61.5715062110495</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J24" t="n">
-        <v>138.9817292615982</v>
+        <v>324.8265602149065</v>
       </c>
       <c r="K24" t="n">
-        <v>283.9882891917075</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L24" t="n">
-        <v>486.4949168764135</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M24" t="n">
-        <v>725.9560908419024</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N24" t="n">
-        <v>974.0964943421054</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O24" t="n">
-        <v>1197.485768662226</v>
+        <v>1383.330599615535</v>
       </c>
       <c r="P24" t="n">
-        <v>1373.633732385903</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q24" t="n">
         <v>1669.116942812768</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>389.7284914539006</v>
+        <v>1089.72543213792</v>
       </c>
       <c r="C25" t="n">
-        <v>389.7284914539006</v>
+        <v>917.7528690168359</v>
       </c>
       <c r="D25" t="n">
-        <v>389.7284914539006</v>
+        <v>754.4360961436066</v>
       </c>
       <c r="E25" t="n">
-        <v>223.5202856067541</v>
+        <v>588.2278902964601</v>
       </c>
       <c r="F25" t="n">
-        <v>223.5202856067541</v>
+        <v>416.3661160710205</v>
       </c>
       <c r="G25" t="n">
-        <v>223.5202856067541</v>
+        <v>250.994749059776</v>
       </c>
       <c r="H25" t="n">
         <v>115.0722936156011</v>
@@ -6147,16 +6147,16 @@
         <v>41.93621366026846</v>
       </c>
       <c r="J25" t="n">
-        <v>137.7139971163567</v>
+        <v>82.87195473999681</v>
       </c>
       <c r="K25" t="n">
-        <v>465.0850000270224</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L25" t="n">
-        <v>948.8191563355876</v>
+        <v>550.7862334937073</v>
       </c>
       <c r="M25" t="n">
-        <v>1062.529155944453</v>
+        <v>664.4962331025729</v>
       </c>
       <c r="N25" t="n">
         <v>1174.812233876682</v>
@@ -6171,28 +6171,28 @@
         <v>2096.810683013423</v>
       </c>
       <c r="R25" t="n">
-        <v>2089.591987219798</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S25" t="n">
-        <v>1934.890579424398</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="T25" t="n">
-        <v>1695.335170435988</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="U25" t="n">
-        <v>1415.199027537812</v>
+        <v>1661.973132319846</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.48756014584</v>
+        <v>1380.261664927875</v>
       </c>
       <c r="W25" t="n">
-        <v>858.6351563183534</v>
+        <v>1105.409261100388</v>
       </c>
       <c r="X25" t="n">
-        <v>616.0712597641585</v>
+        <v>1105.409261100388</v>
       </c>
       <c r="Y25" t="n">
-        <v>389.7284914539006</v>
+        <v>1105.409261100388</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>907.7529050158892</v>
+        <v>605.5066396683003</v>
       </c>
       <c r="C26" t="n">
-        <v>907.7529050158892</v>
+        <v>605.5066396683003</v>
       </c>
       <c r="D26" t="n">
-        <v>907.7529050158892</v>
+        <v>182.2140188533006</v>
       </c>
       <c r="E26" t="n">
-        <v>907.7529050158892</v>
+        <v>182.2140188533006</v>
       </c>
       <c r="F26" t="n">
-        <v>721.9500626852854</v>
+        <v>182.2140188533006</v>
       </c>
       <c r="G26" t="n">
-        <v>319.5852995663163</v>
+        <v>182.2140188533006</v>
       </c>
       <c r="H26" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I26" t="n">
         <v>82.33329152904071</v>
       </c>
       <c r="J26" t="n">
-        <v>217.4391490657156</v>
+        <v>217.4391490657154</v>
       </c>
       <c r="K26" t="n">
-        <v>428.1728161475864</v>
+        <v>428.1728161475862</v>
       </c>
       <c r="L26" t="n">
-        <v>695.6031008100831</v>
+        <v>695.6031008100829</v>
       </c>
       <c r="M26" t="n">
-        <v>998.3171043810851</v>
+        <v>998.3171043810848</v>
       </c>
       <c r="N26" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O26" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P26" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q26" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R26" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S26" t="n">
-        <v>2096.810683013422</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="T26" t="n">
-        <v>2096.810683013422</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="U26" t="n">
-        <v>2096.810683013422</v>
+        <v>1779.235768533234</v>
       </c>
       <c r="V26" t="n">
-        <v>1739.321268139672</v>
+        <v>1421.746353659483</v>
       </c>
       <c r="W26" t="n">
-        <v>1739.321268139672</v>
+        <v>1025.35500395983</v>
       </c>
       <c r="X26" t="n">
-        <v>1327.601269307419</v>
+        <v>1025.35500395983</v>
       </c>
       <c r="Y26" t="n">
-        <v>1327.601269307419</v>
+        <v>1025.35500395983</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H27" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I27" t="n">
-        <v>61.57150621104949</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J27" t="n">
-        <v>430.2820604998124</v>
+        <v>324.8265602149064</v>
       </c>
       <c r="K27" t="n">
-        <v>575.2886204299217</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L27" t="n">
-        <v>777.7952481146278</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M27" t="n">
-        <v>1017.256422080117</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N27" t="n">
-        <v>1265.39682558032</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O27" t="n">
-        <v>1488.78609990044</v>
+        <v>1383.330599615535</v>
       </c>
       <c r="P27" t="n">
-        <v>1664.934063624117</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q27" t="n">
-        <v>1774.572443097673</v>
+        <v>1669.116942812768</v>
       </c>
       <c r="R27" t="n">
         <v>1815.41703571448</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>287.0448567366851</v>
+        <v>442.1264192960298</v>
       </c>
       <c r="C28" t="n">
-        <v>115.0722936156011</v>
+        <v>270.1538561749459</v>
       </c>
       <c r="D28" t="n">
-        <v>115.0722936156011</v>
+        <v>270.1538561749459</v>
       </c>
       <c r="E28" t="n">
-        <v>115.0722936156011</v>
+        <v>207.3075806715131</v>
       </c>
       <c r="F28" t="n">
-        <v>115.0722936156011</v>
+        <v>207.3075806715131</v>
       </c>
       <c r="G28" t="n">
-        <v>115.0722936156011</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H28" t="n">
-        <v>115.0722936156011</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I28" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8719547399968</v>
+        <v>88.52164773188804</v>
       </c>
       <c r="K28" t="n">
-        <v>162.9603485366404</v>
+        <v>415.8926506425537</v>
       </c>
       <c r="L28" t="n">
-        <v>458.2917936300581</v>
+        <v>523.2379133599541</v>
       </c>
       <c r="M28" t="n">
-        <v>977.2524376758802</v>
+        <v>1042.198557405776</v>
       </c>
       <c r="N28" t="n">
-        <v>1487.56843844999</v>
+        <v>1552.514558179886</v>
       </c>
       <c r="O28" t="n">
-        <v>1965.681481817286</v>
+        <v>1652.925277243979</v>
       </c>
       <c r="P28" t="n">
         <v>2048.502628155006</v>
       </c>
       <c r="Q28" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R28" t="n">
-        <v>2096.810683013422</v>
+        <v>2089.591987219798</v>
       </c>
       <c r="S28" t="n">
-        <v>1942.109275218022</v>
+        <v>1934.890579424398</v>
       </c>
       <c r="T28" t="n">
-        <v>1702.553866229613</v>
+        <v>1695.335170435988</v>
       </c>
       <c r="U28" t="n">
-        <v>1422.417723331436</v>
+        <v>1415.199027537812</v>
       </c>
       <c r="V28" t="n">
-        <v>1140.706255939465</v>
+        <v>1133.48756014584</v>
       </c>
       <c r="W28" t="n">
-        <v>865.8538521119781</v>
+        <v>858.6351563183534</v>
       </c>
       <c r="X28" t="n">
-        <v>623.2899555577832</v>
+        <v>858.6351563183534</v>
       </c>
       <c r="Y28" t="n">
-        <v>396.9471872475252</v>
+        <v>632.2923880080955</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>412.882023169681</v>
+        <v>867.5935975942373</v>
       </c>
       <c r="C29" t="n">
-        <v>412.882023169681</v>
+        <v>867.5935975942373</v>
       </c>
       <c r="D29" t="n">
-        <v>319.5852995663163</v>
+        <v>444.3009767792375</v>
       </c>
       <c r="E29" t="n">
-        <v>319.5852995663163</v>
+        <v>444.3009767792375</v>
       </c>
       <c r="F29" t="n">
-        <v>319.5852995663163</v>
+        <v>444.3009767792375</v>
       </c>
       <c r="G29" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H29" t="n">
         <v>41.93621366026846</v>
       </c>
       <c r="I29" t="n">
-        <v>82.33329152904116</v>
+        <v>82.33329152904071</v>
       </c>
       <c r="J29" t="n">
-        <v>217.4391490657158</v>
+        <v>217.4391490657156</v>
       </c>
       <c r="K29" t="n">
-        <v>428.1728161475867</v>
+        <v>428.1728161475862</v>
       </c>
       <c r="L29" t="n">
-        <v>695.6031008100832</v>
+        <v>695.603100810083</v>
       </c>
       <c r="M29" t="n">
-        <v>998.3171043810851</v>
+        <v>998.3171043810848</v>
       </c>
       <c r="N29" t="n">
         <v>1306.679080869173</v>
@@ -6490,25 +6490,25 @@
         <v>2096.810683013423</v>
       </c>
       <c r="S29" t="n">
-        <v>2096.810683013423</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="T29" t="n">
-        <v>1884.527607206958</v>
+        <v>1825.14965818703</v>
       </c>
       <c r="U29" t="n">
-        <v>1626.330641746697</v>
+        <v>1825.14965818703</v>
       </c>
       <c r="V29" t="n">
-        <v>1626.330641746697</v>
+        <v>1467.660243313279</v>
       </c>
       <c r="W29" t="n">
-        <v>1229.939292047043</v>
+        <v>1467.660243313279</v>
       </c>
       <c r="X29" t="n">
-        <v>818.2192932147907</v>
+        <v>1287.441961885767</v>
       </c>
       <c r="Y29" t="n">
-        <v>412.882023169681</v>
+        <v>1287.441961885767</v>
       </c>
     </row>
     <row r="30">
@@ -6542,13 +6542,13 @@
         <v>61.5715062110495</v>
       </c>
       <c r="J30" t="n">
-        <v>430.2820604998124</v>
+        <v>138.9817292615982</v>
       </c>
       <c r="K30" t="n">
-        <v>575.2886204299217</v>
+        <v>575.2886204299214</v>
       </c>
       <c r="L30" t="n">
-        <v>777.7952481146278</v>
+        <v>777.7952481146275</v>
       </c>
       <c r="M30" t="n">
         <v>1017.256422080117</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1089.72543213792</v>
+        <v>545.3775607440991</v>
       </c>
       <c r="C31" t="n">
-        <v>917.7528690168359</v>
+        <v>545.3775607440991</v>
       </c>
       <c r="D31" t="n">
-        <v>754.4360961436066</v>
+        <v>545.3775607440991</v>
       </c>
       <c r="E31" t="n">
-        <v>588.2278902964601</v>
+        <v>379.1693548969527</v>
       </c>
       <c r="F31" t="n">
-        <v>416.3661160710205</v>
+        <v>207.3075806715131</v>
       </c>
       <c r="G31" t="n">
-        <v>250.994749059776</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H31" t="n">
-        <v>115.0722936156011</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I31" t="n">
         <v>41.93621366026846</v>
       </c>
       <c r="J31" t="n">
-        <v>82.87195473999681</v>
+        <v>82.87195473999682</v>
       </c>
       <c r="K31" t="n">
-        <v>410.2429576506625</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L31" t="n">
-        <v>684.6206205553628</v>
+        <v>646.6945048452058</v>
       </c>
       <c r="M31" t="n">
-        <v>1203.581264601185</v>
+        <v>1165.655148891028</v>
       </c>
       <c r="N31" t="n">
-        <v>1713.897265375294</v>
+        <v>1487.56843844999</v>
       </c>
       <c r="O31" t="n">
-        <v>1814.307984439387</v>
+        <v>1965.681481817286</v>
       </c>
       <c r="P31" t="n">
-        <v>1897.129130777107</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q31" t="n">
         <v>2096.810683013423</v>
       </c>
       <c r="R31" t="n">
-        <v>2089.591987219798</v>
+        <v>2090.539648714596</v>
       </c>
       <c r="S31" t="n">
-        <v>2089.591987219798</v>
+        <v>2090.539648714596</v>
       </c>
       <c r="T31" t="n">
-        <v>1850.036578231388</v>
+        <v>1850.984239726186</v>
       </c>
       <c r="U31" t="n">
-        <v>1850.036578231388</v>
+        <v>1570.84809682801</v>
       </c>
       <c r="V31" t="n">
-        <v>1850.036578231388</v>
+        <v>1289.136629436039</v>
       </c>
       <c r="W31" t="n">
-        <v>1748.798065714438</v>
+        <v>1014.284225608552</v>
       </c>
       <c r="X31" t="n">
-        <v>1506.234169160243</v>
+        <v>771.7203290543571</v>
       </c>
       <c r="Y31" t="n">
-        <v>1279.891400849986</v>
+        <v>545.3775607440991</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1170.561343027116</v>
+        <v>859.9050498445306</v>
       </c>
       <c r="C32" t="n">
-        <v>1170.561343027116</v>
+        <v>859.9050498445306</v>
       </c>
       <c r="D32" t="n">
-        <v>1170.561343027116</v>
+        <v>859.9050498445306</v>
       </c>
       <c r="E32" t="n">
-        <v>744.5844031749733</v>
+        <v>859.9050498445306</v>
       </c>
       <c r="F32" t="n">
-        <v>319.4602213643735</v>
+        <v>434.7808680339308</v>
       </c>
       <c r="G32" t="n">
         <v>41.93621366026846</v>
@@ -6697,19 +6697,19 @@
         <v>41.93621366026846</v>
       </c>
       <c r="I32" t="n">
-        <v>82.33329152904082</v>
+        <v>82.33329152904093</v>
       </c>
       <c r="J32" t="n">
-        <v>217.4391490657154</v>
+        <v>217.4391490657155</v>
       </c>
       <c r="K32" t="n">
-        <v>428.1728161475861</v>
+        <v>428.1728161475863</v>
       </c>
       <c r="L32" t="n">
-        <v>695.6031008100828</v>
+        <v>695.603100810083</v>
       </c>
       <c r="M32" t="n">
-        <v>998.3171043810846</v>
+        <v>998.3171043810848</v>
       </c>
       <c r="N32" t="n">
         <v>1306.679080869173</v>
@@ -6727,25 +6727,25 @@
         <v>2096.810683013423</v>
       </c>
       <c r="S32" t="n">
-        <v>2037.432733993495</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T32" t="n">
-        <v>1825.14965818703</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="U32" t="n">
-        <v>1566.952692726769</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="V32" t="n">
-        <v>1566.952692726769</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="W32" t="n">
-        <v>1170.561343027116</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="X32" t="n">
-        <v>1170.561343027116</v>
+        <v>1685.09068418117</v>
       </c>
       <c r="Y32" t="n">
-        <v>1170.561343027116</v>
+        <v>1279.753414136061</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>41.93621366026846</v>
       </c>
       <c r="I33" t="n">
-        <v>61.5715062110495</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J33" t="n">
-        <v>138.9817292615982</v>
+        <v>324.8265602149064</v>
       </c>
       <c r="K33" t="n">
-        <v>575.2886204299217</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L33" t="n">
-        <v>777.7952481146278</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M33" t="n">
-        <v>1017.256422080117</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N33" t="n">
-        <v>1265.39682558032</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O33" t="n">
-        <v>1488.78609990044</v>
+        <v>1383.330599615535</v>
       </c>
       <c r="P33" t="n">
-        <v>1664.934063624117</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q33" t="n">
-        <v>1774.572443097673</v>
+        <v>1669.116942812768</v>
       </c>
       <c r="R33" t="n">
         <v>1815.41703571448</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>199.5625227418349</v>
+        <v>543.3229666060838</v>
       </c>
       <c r="C34" t="n">
-        <v>41.93621366026846</v>
+        <v>543.3229666060838</v>
       </c>
       <c r="D34" t="n">
-        <v>41.93621366026846</v>
+        <v>380.0061937328545</v>
       </c>
       <c r="E34" t="n">
-        <v>41.93621366026846</v>
+        <v>213.797987885708</v>
       </c>
       <c r="F34" t="n">
         <v>41.93621366026846</v>
@@ -6858,7 +6858,7 @@
         <v>41.93621366026846</v>
       </c>
       <c r="J34" t="n">
-        <v>82.87195473999681</v>
+        <v>82.87195473999682</v>
       </c>
       <c r="K34" t="n">
         <v>162.9603485366405</v>
@@ -6882,28 +6882,28 @@
         <v>2096.810683013423</v>
       </c>
       <c r="R34" t="n">
-        <v>2089.591987219798</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S34" t="n">
-        <v>1934.890579424398</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="T34" t="n">
-        <v>1695.335170435988</v>
+        <v>1757.384146908266</v>
       </c>
       <c r="U34" t="n">
-        <v>1415.199027537812</v>
+        <v>1477.248004010089</v>
       </c>
       <c r="V34" t="n">
-        <v>1133.48756014584</v>
+        <v>1477.248004010089</v>
       </c>
       <c r="W34" t="n">
-        <v>858.6351563183534</v>
+        <v>1202.395600182602</v>
       </c>
       <c r="X34" t="n">
-        <v>616.0712597641585</v>
+        <v>959.8317036284075</v>
       </c>
       <c r="Y34" t="n">
-        <v>389.7284914539006</v>
+        <v>733.4889353181495</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.93621366026846</v>
+        <v>1722.30282842868</v>
       </c>
       <c r="C35" t="n">
-        <v>41.93621366026846</v>
+        <v>1295.40209844198</v>
       </c>
       <c r="D35" t="n">
-        <v>41.93621366026846</v>
+        <v>1295.40209844198</v>
       </c>
       <c r="E35" t="n">
-        <v>41.93621366026846</v>
+        <v>869.4251585898373</v>
       </c>
       <c r="F35" t="n">
-        <v>41.93621366026846</v>
+        <v>444.3009767792375</v>
       </c>
       <c r="G35" t="n">
         <v>41.93621366026846</v>
@@ -6946,13 +6946,13 @@
         <v>695.6031008100829</v>
       </c>
       <c r="M35" t="n">
-        <v>998.3171043810846</v>
+        <v>998.3171043810848</v>
       </c>
       <c r="N35" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O35" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P35" t="n">
         <v>1836.746925560032</v>
@@ -6964,25 +6964,25 @@
         <v>2096.810683013423</v>
       </c>
       <c r="S35" t="n">
-        <v>2037.432733993495</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T35" t="n">
-        <v>1825.14965818703</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="U35" t="n">
-        <v>1566.952692726769</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="V35" t="n">
-        <v>1209.463277853018</v>
+        <v>1739.321268139672</v>
       </c>
       <c r="W35" t="n">
-        <v>813.0719281533652</v>
+        <v>1739.321268139672</v>
       </c>
       <c r="X35" t="n">
-        <v>401.3519293211124</v>
+        <v>1739.321268139672</v>
       </c>
       <c r="Y35" t="n">
-        <v>41.93621366026846</v>
+        <v>1739.321268139672</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>41.93621366026846</v>
       </c>
       <c r="I36" t="n">
-        <v>61.5715062110495</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J36" t="n">
-        <v>138.9817292615982</v>
+        <v>324.8265602149064</v>
       </c>
       <c r="K36" t="n">
-        <v>283.9882891917075</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L36" t="n">
-        <v>506.9750075690087</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M36" t="n">
-        <v>746.4361815344976</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N36" t="n">
-        <v>1265.39682558032</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O36" t="n">
-        <v>1488.78609990044</v>
+        <v>1383.330599615535</v>
       </c>
       <c r="P36" t="n">
-        <v>1664.934063624117</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.572443097673</v>
+        <v>1669.116942812768</v>
       </c>
       <c r="R36" t="n">
         <v>1815.41703571448</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>882.7495027112411</v>
+        <v>396.9471872475257</v>
       </c>
       <c r="C37" t="n">
-        <v>710.7769395901571</v>
+        <v>224.9746241264417</v>
       </c>
       <c r="D37" t="n">
-        <v>547.4601667169278</v>
+        <v>224.9746241264417</v>
       </c>
       <c r="E37" t="n">
-        <v>381.2519608697813</v>
+        <v>58.76641827929524</v>
       </c>
       <c r="F37" t="n">
-        <v>209.3901866443418</v>
+        <v>58.76641827929524</v>
       </c>
       <c r="G37" t="n">
-        <v>177.8586691044434</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H37" t="n">
         <v>41.93621366026846</v>
@@ -7098,16 +7098,16 @@
         <v>160.7936713882177</v>
       </c>
       <c r="K37" t="n">
-        <v>240.8820651848613</v>
+        <v>488.1646742988834</v>
       </c>
       <c r="L37" t="n">
-        <v>724.6162214934266</v>
+        <v>595.5099370162836</v>
       </c>
       <c r="M37" t="n">
-        <v>911.1556585665542</v>
+        <v>890.8250600278773</v>
       </c>
       <c r="N37" t="n">
-        <v>1023.438736498783</v>
+        <v>1401.141060801987</v>
       </c>
       <c r="O37" t="n">
         <v>1501.55177986608</v>
@@ -7122,25 +7122,25 @@
         <v>2096.810683013423</v>
       </c>
       <c r="S37" t="n">
-        <v>2096.810683013423</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="T37" t="n">
-        <v>2096.810683013423</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="U37" t="n">
-        <v>1816.674540115247</v>
+        <v>1422.417723331437</v>
       </c>
       <c r="V37" t="n">
-        <v>1816.674540115247</v>
+        <v>1140.706255939466</v>
       </c>
       <c r="W37" t="n">
-        <v>1541.82213628776</v>
+        <v>865.8538521119785</v>
       </c>
       <c r="X37" t="n">
-        <v>1299.258239733565</v>
+        <v>623.2899555577836</v>
       </c>
       <c r="Y37" t="n">
-        <v>1072.915471423307</v>
+        <v>396.9471872475257</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>319.5852995663163</v>
+        <v>789.6149135614887</v>
       </c>
       <c r="C38" t="n">
-        <v>319.5852995663163</v>
+        <v>362.7141835747888</v>
       </c>
       <c r="D38" t="n">
-        <v>319.5852995663163</v>
+        <v>362.7141835747888</v>
       </c>
       <c r="E38" t="n">
-        <v>319.5852995663163</v>
+        <v>362.7141835747888</v>
       </c>
       <c r="F38" t="n">
-        <v>319.5852995663163</v>
+        <v>362.7141835747888</v>
       </c>
       <c r="G38" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="H38" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="I38" t="n">
         <v>82.33329152904071</v>
@@ -7183,13 +7183,13 @@
         <v>695.6031008100829</v>
       </c>
       <c r="M38" t="n">
-        <v>998.3171043810846</v>
+        <v>998.3171043810848</v>
       </c>
       <c r="N38" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O38" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P38" t="n">
         <v>1836.746925560032</v>
@@ -7201,25 +7201,25 @@
         <v>2096.810683013423</v>
       </c>
       <c r="S38" t="n">
-        <v>2096.810683013423</v>
+        <v>2037.432733993496</v>
       </c>
       <c r="T38" t="n">
-        <v>1884.527607206958</v>
+        <v>1825.14965818703</v>
       </c>
       <c r="U38" t="n">
-        <v>1626.330641746697</v>
+        <v>1566.952692726769</v>
       </c>
       <c r="V38" t="n">
-        <v>1268.841226872946</v>
+        <v>1209.463277853019</v>
       </c>
       <c r="W38" t="n">
-        <v>872.4498771732929</v>
+        <v>1209.463277853019</v>
       </c>
       <c r="X38" t="n">
-        <v>460.7298783410401</v>
+        <v>1209.463277853019</v>
       </c>
       <c r="Y38" t="n">
-        <v>319.5852995663163</v>
+        <v>1209.463277853019</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>178.1076835337693</v>
       </c>
       <c r="G39" t="n">
-        <v>85.11025499969489</v>
+        <v>85.11025499969492</v>
       </c>
       <c r="H39" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="I39" t="n">
-        <v>61.5715062110495</v>
+        <v>85.02881205546137</v>
       </c>
       <c r="J39" t="n">
-        <v>138.9817292615982</v>
+        <v>324.826560214906</v>
       </c>
       <c r="K39" t="n">
-        <v>283.9882891917075</v>
+        <v>469.8331201450154</v>
       </c>
       <c r="L39" t="n">
-        <v>486.4949168764135</v>
+        <v>672.3397478297215</v>
       </c>
       <c r="M39" t="n">
-        <v>725.9560908419024</v>
+        <v>911.8009217952106</v>
       </c>
       <c r="N39" t="n">
-        <v>1244.916734887724</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O39" t="n">
-        <v>1488.78609990044</v>
+        <v>1383.330599615534</v>
       </c>
       <c r="P39" t="n">
-        <v>1664.934063624117</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.572443097673</v>
+        <v>1669.116942812768</v>
       </c>
       <c r="R39" t="n">
         <v>1815.41703571448</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>361.4826263308602</v>
+        <v>917.7528690168359</v>
       </c>
       <c r="C40" t="n">
-        <v>361.4826263308602</v>
+        <v>917.7528690168359</v>
       </c>
       <c r="D40" t="n">
-        <v>361.4826263308602</v>
+        <v>754.4360961436066</v>
       </c>
       <c r="E40" t="n">
-        <v>349.7204433298829</v>
+        <v>588.2278902964601</v>
       </c>
       <c r="F40" t="n">
-        <v>177.8586691044434</v>
+        <v>416.3661160710205</v>
       </c>
       <c r="G40" t="n">
-        <v>177.8586691044434</v>
+        <v>250.994749059776</v>
       </c>
       <c r="H40" t="n">
-        <v>41.93621366026846</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="I40" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="J40" t="n">
-        <v>82.87195473999681</v>
+        <v>82.87195473999685</v>
       </c>
       <c r="K40" t="n">
-        <v>162.9603485366405</v>
+        <v>372.5905601633735</v>
       </c>
       <c r="L40" t="n">
-        <v>458.2917936300585</v>
+        <v>856.3247164719388</v>
       </c>
       <c r="M40" t="n">
-        <v>977.2524376758806</v>
+        <v>1375.285360517761</v>
       </c>
       <c r="N40" t="n">
         <v>1487.56843844999</v>
       </c>
       <c r="O40" t="n">
-        <v>1965.681481817286</v>
+        <v>1965.681481817287</v>
       </c>
       <c r="P40" t="n">
-        <v>2048.502628155006</v>
+        <v>2048.502628155007</v>
       </c>
       <c r="Q40" t="n">
         <v>2096.810683013423</v>
@@ -7359,25 +7359,25 @@
         <v>2096.810683013423</v>
       </c>
       <c r="S40" t="n">
-        <v>2096.810683013423</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="T40" t="n">
-        <v>1857.255274025013</v>
+        <v>1705.943247617241</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.119131126837</v>
+        <v>1425.807104719065</v>
       </c>
       <c r="V40" t="n">
-        <v>1295.407663734866</v>
+        <v>1144.095637327094</v>
       </c>
       <c r="W40" t="n">
-        <v>1020.555259907379</v>
+        <v>1144.095637327094</v>
       </c>
       <c r="X40" t="n">
-        <v>777.9913633531838</v>
+        <v>1144.095637327094</v>
       </c>
       <c r="Y40" t="n">
-        <v>551.6485950429259</v>
+        <v>917.7528690168359</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>894.8138834991107</v>
+        <v>1625.712735161243</v>
       </c>
       <c r="C41" t="n">
-        <v>467.9131535124109</v>
+        <v>1625.712735161243</v>
       </c>
       <c r="D41" t="n">
-        <v>467.9131535124109</v>
+        <v>1202.420114346243</v>
       </c>
       <c r="E41" t="n">
-        <v>41.93621366026845</v>
+        <v>776.4431744941008</v>
       </c>
       <c r="F41" t="n">
-        <v>41.93621366026845</v>
+        <v>721.9500626852855</v>
       </c>
       <c r="G41" t="n">
-        <v>41.93621366026845</v>
+        <v>319.5852995663164</v>
       </c>
       <c r="H41" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="I41" t="n">
-        <v>82.33329152904091</v>
+        <v>82.33329152904116</v>
       </c>
       <c r="J41" t="n">
-        <v>217.4391490657154</v>
+        <v>217.4391490657158</v>
       </c>
       <c r="K41" t="n">
-        <v>428.1728161475862</v>
+        <v>428.1728161475866</v>
       </c>
       <c r="L41" t="n">
-        <v>695.6031008100829</v>
+        <v>695.6031008100833</v>
       </c>
       <c r="M41" t="n">
-        <v>998.3171043810846</v>
+        <v>998.3171043810853</v>
       </c>
       <c r="N41" t="n">
-        <v>1306.679080869173</v>
+        <v>1306.679080869174</v>
       </c>
       <c r="O41" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P41" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q41" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R41" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S41" t="n">
-        <v>2037.432733993495</v>
+        <v>2037.432733993496</v>
       </c>
       <c r="T41" t="n">
-        <v>1906.891613532775</v>
+        <v>2037.432733993496</v>
       </c>
       <c r="U41" t="n">
-        <v>1648.694648072514</v>
+        <v>2037.432733993496</v>
       </c>
       <c r="V41" t="n">
-        <v>1291.205233198764</v>
+        <v>2037.432733993496</v>
       </c>
       <c r="W41" t="n">
-        <v>894.8138834991107</v>
+        <v>2037.432733993496</v>
       </c>
       <c r="X41" t="n">
-        <v>894.8138834991107</v>
+        <v>1625.712735161243</v>
       </c>
       <c r="Y41" t="n">
-        <v>894.8138834991107</v>
+        <v>1625.712735161243</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>178.1076835337693</v>
       </c>
       <c r="G42" t="n">
-        <v>85.11025499969489</v>
+        <v>85.11025499969492</v>
       </c>
       <c r="H42" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="I42" t="n">
-        <v>61.5715062110495</v>
+        <v>85.02881205546137</v>
       </c>
       <c r="J42" t="n">
-        <v>430.2820604998123</v>
+        <v>324.826560214906</v>
       </c>
       <c r="K42" t="n">
-        <v>575.2886204299216</v>
+        <v>469.8331201450154</v>
       </c>
       <c r="L42" t="n">
-        <v>777.7952481146277</v>
+        <v>672.3397478297215</v>
       </c>
       <c r="M42" t="n">
-        <v>1017.256422080117</v>
+        <v>911.8009217952106</v>
       </c>
       <c r="N42" t="n">
-        <v>1265.39682558032</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O42" t="n">
-        <v>1488.78609990044</v>
+        <v>1383.330599615534</v>
       </c>
       <c r="P42" t="n">
-        <v>1664.934063624117</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q42" t="n">
-        <v>1774.572443097673</v>
+        <v>1669.116942812768</v>
       </c>
       <c r="R42" t="n">
         <v>1815.41703571448</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>881.1741782174458</v>
+        <v>604.0465228850558</v>
       </c>
       <c r="C43" t="n">
-        <v>709.2016150963618</v>
+        <v>604.0465228850558</v>
       </c>
       <c r="D43" t="n">
-        <v>709.2016150963618</v>
+        <v>440.7297500118265</v>
       </c>
       <c r="E43" t="n">
-        <v>542.9934092492153</v>
+        <v>349.7204433298829</v>
       </c>
       <c r="F43" t="n">
-        <v>371.1316350237757</v>
+        <v>177.8586691044434</v>
       </c>
       <c r="G43" t="n">
-        <v>205.7602680125312</v>
+        <v>177.8586691044434</v>
       </c>
       <c r="H43" t="n">
-        <v>115.0722936156011</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="I43" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="J43" t="n">
-        <v>160.7936713882177</v>
+        <v>82.87195473999685</v>
       </c>
       <c r="K43" t="n">
-        <v>240.8820651848613</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L43" t="n">
-        <v>724.6162214934266</v>
+        <v>458.2917936300586</v>
       </c>
       <c r="M43" t="n">
-        <v>838.3262211022922</v>
+        <v>977.2524376758809</v>
       </c>
       <c r="N43" t="n">
-        <v>1348.642221876401</v>
+        <v>1487.56843844999</v>
       </c>
       <c r="O43" t="n">
-        <v>1826.755265243698</v>
+        <v>1965.681481817287</v>
       </c>
       <c r="P43" t="n">
-        <v>1909.576411581418</v>
+        <v>2048.502628155007</v>
       </c>
       <c r="Q43" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R43" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S43" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T43" t="n">
-        <v>2096.810683013422</v>
+        <v>1857.255274025014</v>
       </c>
       <c r="U43" t="n">
-        <v>2096.810683013422</v>
+        <v>1577.119131126838</v>
       </c>
       <c r="V43" t="n">
-        <v>1815.099215621451</v>
+        <v>1295.407663734866</v>
       </c>
       <c r="W43" t="n">
-        <v>1540.246811793964</v>
+        <v>1020.555259907379</v>
       </c>
       <c r="X43" t="n">
-        <v>1297.682915239769</v>
+        <v>1020.555259907379</v>
       </c>
       <c r="Y43" t="n">
-        <v>1071.340146929512</v>
+        <v>794.2124915971215</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1023.421038442267</v>
+        <v>892.1295644619681</v>
       </c>
       <c r="C44" t="n">
-        <v>596.5203084555667</v>
+        <v>465.2288344752682</v>
       </c>
       <c r="D44" t="n">
-        <v>596.5203084555667</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="E44" t="n">
-        <v>596.5203084555667</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="F44" t="n">
-        <v>171.3961266449669</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="G44" t="n">
-        <v>171.3961266449669</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="H44" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="I44" t="n">
-        <v>82.33329152904105</v>
+        <v>82.33329152904093</v>
       </c>
       <c r="J44" t="n">
-        <v>217.4391490657156</v>
+        <v>217.4391490657155</v>
       </c>
       <c r="K44" t="n">
         <v>428.1728161475864</v>
       </c>
       <c r="L44" t="n">
-        <v>695.603100810083</v>
+        <v>695.6031008100831</v>
       </c>
       <c r="M44" t="n">
-        <v>998.3171043810847</v>
+        <v>998.3171043810851</v>
       </c>
       <c r="N44" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O44" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P44" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q44" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R44" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S44" t="n">
-        <v>2037.432733993495</v>
+        <v>2037.432733993496</v>
       </c>
       <c r="T44" t="n">
-        <v>1825.149658187029</v>
+        <v>2037.432733993496</v>
       </c>
       <c r="U44" t="n">
-        <v>1825.149658187029</v>
+        <v>1779.235768533234</v>
       </c>
       <c r="V44" t="n">
-        <v>1825.149658187029</v>
+        <v>1779.235768533234</v>
       </c>
       <c r="W44" t="n">
-        <v>1428.758308487376</v>
+        <v>1779.235768533234</v>
       </c>
       <c r="X44" t="n">
-        <v>1428.758308487376</v>
+        <v>1367.515769700982</v>
       </c>
       <c r="Y44" t="n">
-        <v>1023.421038442267</v>
+        <v>962.1784996558721</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>178.1076835337693</v>
       </c>
       <c r="G45" t="n">
-        <v>85.11025499969489</v>
+        <v>85.11025499969492</v>
       </c>
       <c r="H45" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="I45" t="n">
-        <v>85.02881205546134</v>
+        <v>85.02881205546137</v>
       </c>
       <c r="J45" t="n">
-        <v>162.43903510601</v>
+        <v>324.826560214906</v>
       </c>
       <c r="K45" t="n">
-        <v>307.4455950361193</v>
+        <v>469.8331201450154</v>
       </c>
       <c r="L45" t="n">
-        <v>509.9522227208254</v>
+        <v>672.3397478297215</v>
       </c>
       <c r="M45" t="n">
-        <v>749.4133966863144</v>
+        <v>911.8009217952106</v>
       </c>
       <c r="N45" t="n">
         <v>1159.941325295414</v>
       </c>
       <c r="O45" t="n">
-        <v>1383.330599615535</v>
+        <v>1383.330599615534</v>
       </c>
       <c r="P45" t="n">
         <v>1559.478563339211</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1089.72543213792</v>
+        <v>752.3815020055913</v>
       </c>
       <c r="C46" t="n">
-        <v>917.7528690168359</v>
+        <v>752.3815020055913</v>
       </c>
       <c r="D46" t="n">
-        <v>754.4360961436066</v>
+        <v>589.064729132362</v>
       </c>
       <c r="E46" t="n">
-        <v>588.2278902964601</v>
+        <v>422.8565232852155</v>
       </c>
       <c r="F46" t="n">
-        <v>416.3661160710205</v>
+        <v>250.994749059776</v>
       </c>
       <c r="G46" t="n">
-        <v>250.9947490597759</v>
+        <v>250.994749059776</v>
       </c>
       <c r="H46" t="n">
         <v>115.0722936156011</v>
       </c>
       <c r="I46" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026847</v>
       </c>
       <c r="J46" t="n">
-        <v>82.8719547399968</v>
+        <v>160.7936713882177</v>
       </c>
       <c r="K46" t="n">
-        <v>410.2429576506625</v>
+        <v>488.1646742988835</v>
       </c>
       <c r="L46" t="n">
-        <v>893.9771139592278</v>
+        <v>971.8988306074489</v>
       </c>
       <c r="M46" t="n">
-        <v>1412.93775800505</v>
+        <v>1085.608830216315</v>
       </c>
       <c r="N46" t="n">
-        <v>1525.220835937279</v>
+        <v>1197.891908148544</v>
       </c>
       <c r="O46" t="n">
-        <v>1965.681481817286</v>
+        <v>1501.55177986608</v>
       </c>
       <c r="P46" t="n">
-        <v>2048.502628155006</v>
+        <v>1897.129130777108</v>
       </c>
       <c r="Q46" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R46" t="n">
-        <v>2089.591987219797</v>
+        <v>2089.591987219798</v>
       </c>
       <c r="S46" t="n">
-        <v>1934.890579424397</v>
+        <v>1934.890579424398</v>
       </c>
       <c r="T46" t="n">
-        <v>1934.890579424397</v>
+        <v>1695.335170435988</v>
       </c>
       <c r="U46" t="n">
-        <v>1654.754436526221</v>
+        <v>1415.199027537812</v>
       </c>
       <c r="V46" t="n">
-        <v>1654.754436526221</v>
+        <v>1217.399874545144</v>
       </c>
       <c r="W46" t="n">
-        <v>1654.754436526221</v>
+        <v>942.547470717657</v>
       </c>
       <c r="X46" t="n">
-        <v>1506.234169160243</v>
+        <v>942.547470717657</v>
       </c>
       <c r="Y46" t="n">
-        <v>1279.891400849986</v>
+        <v>942.547470717657</v>
       </c>
     </row>
   </sheetData>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>294.2427588264791</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>20.68696029555085</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>273.5557985309283</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>55.39600240036259</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>55.39600240036354</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>294.2427588264791</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>20.68696029555062</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>273.5557985309285</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>282.6842814036626</v>
+        <v>189.8850327030482</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>409.3440852898552</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>294.2427588264791</v>
+        <v>294.2427588264786</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>112.5029256968033</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>409.3440852898552</v>
+        <v>409.3440852898551</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>343.484774561529</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>164.0278031402994</v>
       </c>
       <c r="K21" t="n">
-        <v>164.0278031402995</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>26.24271871774553</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>409.3440852898552</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>205.3021743974166</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>164.0278031402995</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>187.7220514679885</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9795,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>55.39600240036354</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>283.313759838047</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>294.2427588264791</v>
+        <v>164.0278031402994</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>5.706760597869909</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>189.8850327030479</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>409.3440852898551</v>
+        <v>409.3440852898552</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>294.2427588264791</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>294.2427588264787</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>168.719596148788</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
         <v>409.3440852898552</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>211.7476885118514</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>164.0278031402994</v>
       </c>
       <c r="K33" t="n">
-        <v>294.2427588264791</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>164.0278031402994</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>20.68696029555062</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>273.5557985309285</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,19 +10746,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>73.56508834773948</v>
+        <v>183.4395185886142</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>164.0278031402989</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,10 +10913,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>273.5557985309285</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>20.68696029555085</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>211.7476885118514</v>
       </c>
       <c r="L40" t="n">
-        <v>189.8850327030482</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>409.3440852898552</v>
+        <v>409.3440852898553</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>294.242758826479</v>
+        <v>164.0278031402989</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>189.8850327030482</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>409.3440852898553</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>140.3295116904932</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>164.0278031402989</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>164.0278031402995</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -11463,19 +11463,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>409.3440852898551</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>343.484774561529</v>
+        <v>205.3021743974174</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>209.0232769783726</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>266.6550643054883</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>58.52653557149856</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>24.33720017431341</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>277.1176369125418</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>261.5507643576821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>20.7186870040082</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>7.146508835688699</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3347814691945</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>67.0957679168738</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -23740,10 +23740,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>286.6042227786565</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>340.3629847822244</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.40471915577928</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1598548985255</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>60.13484702224326</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.6355573958938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>362.6960839033408</v>
       </c>
       <c r="H20" t="n">
-        <v>45.5528620946734</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24129,16 +24129,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>48.51755189837756</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.40471915577928</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>58.63621657818558</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24211,16 +24211,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>301.8216882727668</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>58.78416952972844</v>
       </c>
       <c r="T23" t="n">
-        <v>210.1602450484006</v>
+        <v>5.935768552023575</v>
       </c>
       <c r="U23" t="n">
         <v>255.6149958056585</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>172.7373183521013</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>27.1997188184916</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1598548985255</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>236.928126085196</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>135.9975679058856</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.1602450484006</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.46100181921324</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>102.3283110402765</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>134.5632308897331</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.40471915577928</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.146508835688699</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>326.6959382395187</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -24694,10 +24694,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>229.1867002306933</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.40471915577928</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.9381848798498673</v>
       </c>
       <c r="S31" t="n">
         <v>153.1543937174461</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3347814691945</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>171.8777523974317</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -24925,13 +24925,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>123.5923478607153</v>
+        <v>9.424907657853623</v>
       </c>
       <c r="H32" t="n">
         <v>274.8725950469874</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>14.20279149912236</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.7176533411321</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.146508835688685</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>54.28197787186596</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>398.801625334732</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>274.8725950469874</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>45.462338840423</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>132.5014509766327</v>
+        <v>147.0557507682956</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I37" t="n">
         <v>72.40471915577928</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.146508835688699</v>
+        <v>7.146508835688685</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1598548985255</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25405,10 +25405,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3411154877793</v>
+        <v>80.77092527240427</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>261.5507643576821</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>152.9015626177074</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.40471915577928</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.146508835688699</v>
+        <v>7.146508835688678</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>3.35548757375156</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>366.9247593017666</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>80.92453579228842</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>74.44691017355088</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H43" t="n">
-        <v>44.78213623677233</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.40471915577926</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.146508835688692</v>
+        <v>7.146508835688678</v>
       </c>
       <c r="S43" t="n">
         <v>153.1543937174461</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1598548985255</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3347814691945</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>346.3014348066498</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>398.3411154877793</v>
       </c>
       <c r="H44" t="n">
-        <v>146.7072811921359</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1598548985255</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>83.07319125531004</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>93.10319289633534</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>373893.958966556</v>
+        <v>373893.9589665562</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>373893.9589665562</v>
+        <v>373893.9589665561</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>373893.9589665562</v>
+        <v>373893.958966556</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373893.9589665559</v>
+        <v>373893.9589665561</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>373893.9589665561</v>
+        <v>373893.9589665562</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>373893.9589665562</v>
+        <v>373893.9589665561</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>373893.9589665562</v>
+        <v>373893.9589665561</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373893.9589665562</v>
+        <v>373893.9589665561</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>373893.9589665561</v>
+        <v>373893.9589665562</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>373893.958966556</v>
+        <v>373893.9589665562</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>415986.0355340961</v>
       </c>
       <c r="D2" t="n">
-        <v>415986.0355340961</v>
+        <v>415986.0355340962</v>
       </c>
       <c r="E2" t="n">
-        <v>244275.1516432988</v>
+        <v>244275.151643299</v>
       </c>
       <c r="F2" t="n">
         <v>244275.1516432989</v>
@@ -26331,7 +26331,7 @@
         <v>244275.151643299</v>
       </c>
       <c r="H2" t="n">
-        <v>244275.1516432988</v>
+        <v>244275.151643299</v>
       </c>
       <c r="I2" t="n">
         <v>244275.1516432989</v>
@@ -26340,7 +26340,7 @@
         <v>244275.1516432989</v>
       </c>
       <c r="K2" t="n">
-        <v>244275.1516432989</v>
+        <v>244275.151643299</v>
       </c>
       <c r="L2" t="n">
         <v>244275.1516432989</v>
@@ -26352,7 +26352,7 @@
         <v>244275.1516432989</v>
       </c>
       <c r="O2" t="n">
-        <v>244275.1516432989</v>
+        <v>244275.151643299</v>
       </c>
       <c r="P2" t="n">
         <v>244275.1516432989</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>50079.88112084008</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>505372.9974992513</v>
+        <v>505372.9974992514</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="C4" t="n">
         <v>309806.3511207717</v>
       </c>
       <c r="D4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="E4" t="n">
-        <v>28975.91995959966</v>
+        <v>28975.91995959967</v>
       </c>
       <c r="F4" t="n">
         <v>28975.91995959967</v>
       </c>
       <c r="G4" t="n">
-        <v>28975.91995959967</v>
+        <v>28975.91995959965</v>
       </c>
       <c r="H4" t="n">
         <v>28975.91995959966</v>
       </c>
       <c r="I4" t="n">
-        <v>28975.91995959968</v>
+        <v>28975.91995959966</v>
       </c>
       <c r="J4" t="n">
-        <v>28975.91995959967</v>
+        <v>28975.91995959966</v>
       </c>
       <c r="K4" t="n">
-        <v>28975.91995959967</v>
+        <v>28975.91995959966</v>
       </c>
       <c r="L4" t="n">
-        <v>28975.91995959967</v>
+        <v>28975.91995959966</v>
       </c>
       <c r="M4" t="n">
-        <v>28975.91995959968</v>
+        <v>28975.91995959966</v>
       </c>
       <c r="N4" t="n">
-        <v>28975.91995959968</v>
+        <v>28975.91995959965</v>
       </c>
       <c r="O4" t="n">
-        <v>28975.91995959967</v>
+        <v>28975.91995959965</v>
       </c>
       <c r="P4" t="n">
-        <v>28975.91995959966</v>
+        <v>28975.91995959965</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>34760.56666652932</v>
       </c>
       <c r="E5" t="n">
-        <v>42470.5925503977</v>
+        <v>42470.59255039771</v>
       </c>
       <c r="F5" t="n">
         <v>42470.59255039771</v>
@@ -26487,31 +26487,31 @@
         <v>42470.59255039771</v>
       </c>
       <c r="H5" t="n">
-        <v>42470.5925503977</v>
+        <v>42470.59255039772</v>
       </c>
       <c r="I5" t="n">
         <v>42470.59255039771</v>
       </c>
       <c r="J5" t="n">
-        <v>42470.59255039771</v>
+        <v>42470.59255039772</v>
       </c>
       <c r="K5" t="n">
-        <v>42470.59255039771</v>
+        <v>42470.59255039772</v>
       </c>
       <c r="L5" t="n">
-        <v>42470.59255039771</v>
+        <v>42470.59255039772</v>
       </c>
       <c r="M5" t="n">
-        <v>42470.59255039771</v>
+        <v>42470.59255039772</v>
       </c>
       <c r="N5" t="n">
-        <v>42470.59255039771</v>
+        <v>42470.59255039772</v>
       </c>
       <c r="O5" t="n">
-        <v>42470.59255039771</v>
+        <v>42470.59255039772</v>
       </c>
       <c r="P5" t="n">
-        <v>42470.59255039771</v>
+        <v>42470.59255039772</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21339.236625955</v>
+        <v>21317.56456121702</v>
       </c>
       <c r="C6" t="n">
-        <v>71419.11774679509</v>
+        <v>71397.44568205716</v>
       </c>
       <c r="D6" t="n">
-        <v>71419.11774679503</v>
+        <v>71397.44568205716</v>
       </c>
       <c r="E6" t="n">
-        <v>-332544.3583659499</v>
+        <v>-333158.1369268629</v>
       </c>
       <c r="F6" t="n">
-        <v>172828.6391333015</v>
+        <v>172214.8605723885</v>
       </c>
       <c r="G6" t="n">
-        <v>172828.6391333016</v>
+        <v>172214.8605723885</v>
       </c>
       <c r="H6" t="n">
-        <v>172828.6391333014</v>
+        <v>172214.8605723885</v>
       </c>
       <c r="I6" t="n">
-        <v>172828.6391333015</v>
+        <v>172214.8605723885</v>
       </c>
       <c r="J6" t="n">
-        <v>172828.6391333016</v>
+        <v>172214.8605723884</v>
       </c>
       <c r="K6" t="n">
-        <v>172828.6391333016</v>
+        <v>172214.8605723886</v>
       </c>
       <c r="L6" t="n">
-        <v>172828.6391333015</v>
+        <v>172214.8605723885</v>
       </c>
       <c r="M6" t="n">
-        <v>42195.23677088227</v>
+        <v>41581.45820996925</v>
       </c>
       <c r="N6" t="n">
-        <v>172828.6391333016</v>
+        <v>172214.8605723885</v>
       </c>
       <c r="O6" t="n">
-        <v>172828.6391333015</v>
+        <v>172214.8605723885</v>
       </c>
       <c r="P6" t="n">
-        <v>172828.6391333015</v>
+        <v>172214.8605723885</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>486.1958792932883</v>
       </c>
       <c r="G3" t="n">
-        <v>486.1958792932883</v>
+        <v>486.1958792932884</v>
       </c>
       <c r="H3" t="n">
-        <v>486.1958792932883</v>
+        <v>486.1958792932884</v>
       </c>
       <c r="I3" t="n">
         <v>486.1958792932883</v>
       </c>
       <c r="J3" t="n">
-        <v>486.1958792932883</v>
+        <v>486.1958792932884</v>
       </c>
       <c r="K3" t="n">
-        <v>486.1958792932883</v>
+        <v>486.1958792932884</v>
       </c>
       <c r="L3" t="n">
-        <v>486.1958792932883</v>
+        <v>486.1958792932884</v>
       </c>
       <c r="M3" t="n">
-        <v>486.1958792932883</v>
+        <v>486.1958792932884</v>
       </c>
       <c r="N3" t="n">
-        <v>486.1958792932883</v>
+        <v>486.1958792932885</v>
       </c>
       <c r="O3" t="n">
-        <v>486.1958792932883</v>
+        <v>486.1958792932885</v>
       </c>
       <c r="P3" t="n">
-        <v>486.1958792932883</v>
+        <v>486.1958792932885</v>
       </c>
     </row>
     <row r="4">
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="F4" t="n">
         <v>524.2026707533557</v>
       </c>
       <c r="G4" t="n">
+        <v>524.2026707533556</v>
+      </c>
+      <c r="H4" t="n">
         <v>524.2026707533557</v>
-      </c>
-      <c r="H4" t="n">
-        <v>524.2026707533555</v>
       </c>
       <c r="I4" t="n">
         <v>524.2026707533557</v>
       </c>
       <c r="J4" t="n">
-        <v>524.2026707533556</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="K4" t="n">
         <v>524.2026707533557</v>
@@ -26825,13 +26825,13 @@
         <v>524.2026707533557</v>
       </c>
       <c r="N4" t="n">
-        <v>524.2026707533557</v>
+        <v>524.2026707533558</v>
       </c>
       <c r="O4" t="n">
-        <v>524.2026707533556</v>
+        <v>524.2026707533558</v>
       </c>
       <c r="P4" t="n">
-        <v>524.2026707533556</v>
+        <v>524.2026707533558</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H17" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I17" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J17" t="n">
         <v>165.8905226539447</v>
@@ -32244,28 +32244,28 @@
         <v>308.4436431018115</v>
       </c>
       <c r="M17" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782216</v>
       </c>
       <c r="N17" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O17" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P17" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976205</v>
       </c>
       <c r="R17" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S17" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T17" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U17" t="n">
         <v>0.1563645038933187</v>
@@ -32311,10 +32311,10 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I18" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J18" t="n">
-        <v>98.80325882883703</v>
+        <v>98.80325882883704</v>
       </c>
       <c r="K18" t="n">
         <v>168.8705064900094</v>
@@ -32329,25 +32329,25 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O18" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P18" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q18" t="n">
         <v>133.4928761410553</v>
       </c>
       <c r="R18" t="n">
-        <v>64.93008365354521</v>
+        <v>64.93008365354522</v>
       </c>
       <c r="S18" t="n">
         <v>19.42490140384033</v>
       </c>
       <c r="T18" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06880130367357856</v>
+        <v>0.06880130367357858</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.876746667578061</v>
       </c>
       <c r="H19" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194039</v>
       </c>
       <c r="I19" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J19" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K19" t="n">
         <v>101.8620219240692</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M19" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N19" t="n">
         <v>134.1661514121955</v>
@@ -32411,22 +32411,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P19" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.41557777328653</v>
+        <v>73.41557777328654</v>
       </c>
       <c r="R19" t="n">
-        <v>39.42171834400988</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S19" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T19" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,10 +32466,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H20" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I20" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J20" t="n">
         <v>165.8905226539447</v>
@@ -32481,28 +32481,28 @@
         <v>308.4436431018115</v>
       </c>
       <c r="M20" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782216</v>
       </c>
       <c r="N20" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O20" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P20" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976205</v>
       </c>
       <c r="R20" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S20" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T20" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U20" t="n">
         <v>0.1563645038933187</v>
@@ -32548,10 +32548,10 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I21" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J21" t="n">
-        <v>98.80325882883703</v>
+        <v>98.80325882883704</v>
       </c>
       <c r="K21" t="n">
         <v>168.8705064900094</v>
@@ -32566,25 +32566,25 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O21" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P21" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q21" t="n">
         <v>133.4928761410553</v>
       </c>
       <c r="R21" t="n">
-        <v>64.93008365354521</v>
+        <v>64.93008365354522</v>
       </c>
       <c r="S21" t="n">
         <v>19.42490140384033</v>
       </c>
       <c r="T21" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06880130367357856</v>
+        <v>0.06880130367357858</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.876746667578061</v>
       </c>
       <c r="H22" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194039</v>
       </c>
       <c r="I22" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J22" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K22" t="n">
         <v>101.8620219240692</v>
       </c>
       <c r="L22" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M22" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N22" t="n">
         <v>134.1661514121955</v>
@@ -32648,22 +32648,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P22" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.41557777328653</v>
+        <v>73.41557777328654</v>
       </c>
       <c r="R22" t="n">
-        <v>39.42171834400988</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S22" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T22" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H23" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I23" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J23" t="n">
         <v>165.8905226539447</v>
@@ -32724,10 +32724,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O23" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P23" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q23" t="n">
         <v>211.0700914976204</v>
@@ -32736,10 +32736,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S23" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T23" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U23" t="n">
         <v>0.1563645038933187</v>
@@ -32785,7 +32785,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I24" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J24" t="n">
         <v>98.80325882883703</v>
@@ -32803,7 +32803,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O24" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P24" t="n">
         <v>199.6980772893508</v>
@@ -32818,7 +32818,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T24" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U24" t="n">
         <v>0.06880130367357856</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H25" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I25" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J25" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K25" t="n">
         <v>101.8620219240692</v>
@@ -32876,7 +32876,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M25" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N25" t="n">
         <v>134.1661514121955</v>
@@ -32885,22 +32885,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P25" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q25" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R25" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S25" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T25" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,10 +32940,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H26" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I26" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J26" t="n">
         <v>165.8905226539447</v>
@@ -32955,28 +32955,28 @@
         <v>308.4436431018115</v>
       </c>
       <c r="M26" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782216</v>
       </c>
       <c r="N26" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O26" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P26" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q26" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976205</v>
       </c>
       <c r="R26" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S26" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T26" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U26" t="n">
         <v>0.1563645038933187</v>
@@ -33022,10 +33022,10 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I27" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J27" t="n">
-        <v>98.80325882883703</v>
+        <v>98.80325882883704</v>
       </c>
       <c r="K27" t="n">
         <v>168.8705064900094</v>
@@ -33040,25 +33040,25 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O27" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P27" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q27" t="n">
         <v>133.4928761410553</v>
       </c>
       <c r="R27" t="n">
-        <v>64.93008365354521</v>
+        <v>64.93008365354522</v>
       </c>
       <c r="S27" t="n">
         <v>19.42490140384033</v>
       </c>
       <c r="T27" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06880130367357856</v>
+        <v>0.06880130367357858</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.876746667578061</v>
       </c>
       <c r="H28" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194039</v>
       </c>
       <c r="I28" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J28" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K28" t="n">
         <v>101.8620219240692</v>
       </c>
       <c r="L28" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M28" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N28" t="n">
         <v>134.1661514121955</v>
@@ -33122,22 +33122,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P28" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.41557777328653</v>
+        <v>73.41557777328654</v>
       </c>
       <c r="R28" t="n">
-        <v>39.42171834400988</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S28" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T28" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,10 +33177,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H29" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I29" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J29" t="n">
         <v>165.8905226539447</v>
@@ -33192,28 +33192,28 @@
         <v>308.4436431018115</v>
       </c>
       <c r="M29" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782216</v>
       </c>
       <c r="N29" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O29" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P29" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q29" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976205</v>
       </c>
       <c r="R29" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S29" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T29" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U29" t="n">
         <v>0.1563645038933187</v>
@@ -33259,10 +33259,10 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I30" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J30" t="n">
-        <v>98.80325882883703</v>
+        <v>98.80325882883704</v>
       </c>
       <c r="K30" t="n">
         <v>168.8705064900094</v>
@@ -33277,25 +33277,25 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O30" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P30" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q30" t="n">
         <v>133.4928761410553</v>
       </c>
       <c r="R30" t="n">
-        <v>64.93008365354521</v>
+        <v>64.93008365354522</v>
       </c>
       <c r="S30" t="n">
         <v>19.42490140384033</v>
       </c>
       <c r="T30" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06880130367357856</v>
+        <v>0.06880130367357858</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.876746667578061</v>
       </c>
       <c r="H31" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194039</v>
       </c>
       <c r="I31" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J31" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K31" t="n">
         <v>101.8620219240692</v>
       </c>
       <c r="L31" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M31" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N31" t="n">
         <v>134.1661514121955</v>
@@ -33359,22 +33359,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P31" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.41557777328653</v>
+        <v>73.41557777328654</v>
       </c>
       <c r="R31" t="n">
-        <v>39.42171834400988</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S31" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T31" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H32" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I32" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J32" t="n">
         <v>165.8905226539447</v>
@@ -33429,28 +33429,28 @@
         <v>308.4436431018115</v>
       </c>
       <c r="M32" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782216</v>
       </c>
       <c r="N32" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O32" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P32" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q32" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976205</v>
       </c>
       <c r="R32" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S32" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T32" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U32" t="n">
         <v>0.1563645038933187</v>
@@ -33496,10 +33496,10 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I33" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J33" t="n">
-        <v>98.80325882883703</v>
+        <v>98.80325882883704</v>
       </c>
       <c r="K33" t="n">
         <v>168.8705064900094</v>
@@ -33514,25 +33514,25 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O33" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P33" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q33" t="n">
         <v>133.4928761410553</v>
       </c>
       <c r="R33" t="n">
-        <v>64.93008365354521</v>
+        <v>64.93008365354522</v>
       </c>
       <c r="S33" t="n">
         <v>19.42490140384033</v>
       </c>
       <c r="T33" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06880130367357856</v>
+        <v>0.06880130367357858</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.876746667578061</v>
       </c>
       <c r="H34" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194039</v>
       </c>
       <c r="I34" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J34" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K34" t="n">
         <v>101.8620219240692</v>
       </c>
       <c r="L34" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M34" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N34" t="n">
         <v>134.1661514121955</v>
@@ -33596,22 +33596,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P34" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.41557777328653</v>
+        <v>73.41557777328654</v>
       </c>
       <c r="R34" t="n">
-        <v>39.42171834400988</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S34" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T34" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,10 +33651,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H35" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I35" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J35" t="n">
         <v>165.8905226539447</v>
@@ -33666,28 +33666,28 @@
         <v>308.4436431018115</v>
       </c>
       <c r="M35" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782216</v>
       </c>
       <c r="N35" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O35" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P35" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q35" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976205</v>
       </c>
       <c r="R35" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S35" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T35" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U35" t="n">
         <v>0.1563645038933187</v>
@@ -33733,10 +33733,10 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I36" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J36" t="n">
-        <v>98.80325882883703</v>
+        <v>98.80325882883704</v>
       </c>
       <c r="K36" t="n">
         <v>168.8705064900094</v>
@@ -33751,25 +33751,25 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O36" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P36" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q36" t="n">
         <v>133.4928761410553</v>
       </c>
       <c r="R36" t="n">
-        <v>64.93008365354521</v>
+        <v>64.93008365354522</v>
       </c>
       <c r="S36" t="n">
         <v>19.42490140384033</v>
       </c>
       <c r="T36" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06880130367357856</v>
+        <v>0.06880130367357858</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.876746667578061</v>
       </c>
       <c r="H37" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194039</v>
       </c>
       <c r="I37" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J37" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K37" t="n">
         <v>101.8620219240692</v>
       </c>
       <c r="L37" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M37" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N37" t="n">
         <v>134.1661514121955</v>
@@ -33833,22 +33833,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P37" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.41557777328653</v>
+        <v>73.41557777328654</v>
       </c>
       <c r="R37" t="n">
-        <v>39.42171834400988</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S37" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T37" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.954556298666484</v>
+        <v>1.954556298666485</v>
       </c>
       <c r="H38" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I38" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433973</v>
       </c>
       <c r="J38" t="n">
         <v>165.8905226539447</v>
       </c>
       <c r="K38" t="n">
-        <v>248.626890776497</v>
+        <v>248.6268907764971</v>
       </c>
       <c r="L38" t="n">
-        <v>308.4436431018115</v>
+        <v>308.4436431018116</v>
       </c>
       <c r="M38" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782217</v>
       </c>
       <c r="N38" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O38" t="n">
-        <v>329.3207475669428</v>
+        <v>329.320747566943</v>
       </c>
       <c r="P38" t="n">
-        <v>281.0676389436139</v>
+        <v>281.0676389436141</v>
       </c>
       <c r="Q38" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976205</v>
       </c>
       <c r="R38" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S38" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586257</v>
       </c>
       <c r="T38" t="n">
-        <v>8.556070197412538</v>
+        <v>8.556070197412541</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1563645038933187</v>
+        <v>0.1563645038933188</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,43 +33970,43 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I39" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J39" t="n">
-        <v>98.80325882883703</v>
+        <v>98.80325882883707</v>
       </c>
       <c r="K39" t="n">
-        <v>168.8705064900094</v>
+        <v>168.8705064900095</v>
       </c>
       <c r="L39" t="n">
-        <v>227.0672358907004</v>
+        <v>227.0672358907005</v>
       </c>
       <c r="M39" t="n">
-        <v>264.9767542148421</v>
+        <v>264.9767542148422</v>
       </c>
       <c r="N39" t="n">
-        <v>271.9899004359689</v>
+        <v>271.989900435969</v>
       </c>
       <c r="O39" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587078</v>
       </c>
       <c r="P39" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q39" t="n">
-        <v>133.4928761410553</v>
+        <v>133.4928761410554</v>
       </c>
       <c r="R39" t="n">
-        <v>64.93008365354521</v>
+        <v>64.93008365354524</v>
       </c>
       <c r="S39" t="n">
         <v>19.42490140384033</v>
       </c>
       <c r="T39" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401245</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06880130367357856</v>
+        <v>0.06880130367357859</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780611</v>
       </c>
       <c r="H40" t="n">
-        <v>7.795074917194037</v>
+        <v>7.79507491719404</v>
       </c>
       <c r="I40" t="n">
-        <v>26.36616342134751</v>
+        <v>26.36616342134752</v>
       </c>
       <c r="J40" t="n">
-        <v>61.98598939776889</v>
+        <v>61.98598939776892</v>
       </c>
       <c r="K40" t="n">
-        <v>101.8620219240692</v>
+        <v>101.8620219240693</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M40" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N40" t="n">
-        <v>134.1661514121955</v>
+        <v>134.1661514121956</v>
       </c>
       <c r="O40" t="n">
         <v>123.9241562500336</v>
       </c>
       <c r="P40" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.41557777328653</v>
+        <v>73.41557777328656</v>
       </c>
       <c r="R40" t="n">
-        <v>39.42171834400988</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S40" t="n">
-        <v>15.27930328861038</v>
+        <v>15.27930328861039</v>
       </c>
       <c r="T40" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833533</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425794</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.954556298666484</v>
+        <v>1.954556298666485</v>
       </c>
       <c r="H41" t="n">
         <v>20.01709969371814</v>
       </c>
       <c r="I41" t="n">
-        <v>75.35303170433971</v>
+        <v>75.35303170433995</v>
       </c>
       <c r="J41" t="n">
         <v>165.8905226539447</v>
       </c>
       <c r="K41" t="n">
-        <v>248.626890776497</v>
+        <v>248.6268907764971</v>
       </c>
       <c r="L41" t="n">
-        <v>308.4436431018115</v>
+        <v>308.4436431018116</v>
       </c>
       <c r="M41" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782217</v>
       </c>
       <c r="N41" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O41" t="n">
-        <v>329.3207475669429</v>
+        <v>329.320747566943</v>
       </c>
       <c r="P41" t="n">
-        <v>281.067638943614</v>
+        <v>281.0676389436141</v>
       </c>
       <c r="Q41" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976205</v>
       </c>
       <c r="R41" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S41" t="n">
-        <v>44.53945165586256</v>
+        <v>44.53945165586257</v>
       </c>
       <c r="T41" t="n">
-        <v>8.55607019741254</v>
+        <v>8.556070197412541</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1563645038933187</v>
+        <v>0.1563645038933188</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,40 +34210,40 @@
         <v>36.00601558917278</v>
       </c>
       <c r="J42" t="n">
-        <v>98.80325882883703</v>
+        <v>98.80325882883707</v>
       </c>
       <c r="K42" t="n">
-        <v>168.8705064900094</v>
+        <v>168.8705064900095</v>
       </c>
       <c r="L42" t="n">
-        <v>227.0672358907004</v>
+        <v>227.0672358907005</v>
       </c>
       <c r="M42" t="n">
-        <v>264.9767542148421</v>
+        <v>264.9767542148422</v>
       </c>
       <c r="N42" t="n">
-        <v>271.9899004359689</v>
+        <v>271.989900435969</v>
       </c>
       <c r="O42" t="n">
-        <v>248.8176213587077</v>
+        <v>248.8176213587078</v>
       </c>
       <c r="P42" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.4928761410553</v>
+        <v>133.4928761410554</v>
       </c>
       <c r="R42" t="n">
-        <v>64.93008365354521</v>
+        <v>64.93008365354524</v>
       </c>
       <c r="S42" t="n">
         <v>19.42490140384033</v>
       </c>
       <c r="T42" t="n">
-        <v>4.215226538401244</v>
+        <v>4.215226538401245</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06880130367357856</v>
+        <v>0.06880130367357859</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,28 +34280,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8767466675780609</v>
+        <v>0.8767466675780611</v>
       </c>
       <c r="H43" t="n">
-        <v>7.795074917194038</v>
+        <v>7.79507491719404</v>
       </c>
       <c r="I43" t="n">
-        <v>26.36616342134751</v>
+        <v>26.36616342134752</v>
       </c>
       <c r="J43" t="n">
-        <v>61.9859893977689</v>
+        <v>61.98598939776892</v>
       </c>
       <c r="K43" t="n">
-        <v>101.8620219240692</v>
+        <v>101.8620219240693</v>
       </c>
       <c r="L43" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M43" t="n">
         <v>137.4340253549864</v>
       </c>
       <c r="N43" t="n">
-        <v>134.1661514121955</v>
+        <v>134.1661514121956</v>
       </c>
       <c r="O43" t="n">
         <v>123.9241562500336</v>
@@ -34310,19 +34310,19 @@
         <v>106.0385242314411</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.41557777328653</v>
+        <v>73.41557777328656</v>
       </c>
       <c r="R43" t="n">
-        <v>39.42171834400989</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S43" t="n">
-        <v>15.27930328861038</v>
+        <v>15.27930328861039</v>
       </c>
       <c r="T43" t="n">
-        <v>3.746099397833532</v>
+        <v>3.746099397833533</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04782254550425792</v>
+        <v>0.04782254550425794</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.954556298666484</v>
+        <v>1.954556298666485</v>
       </c>
       <c r="H44" t="n">
         <v>20.01709969371814</v>
       </c>
       <c r="I44" t="n">
-        <v>75.35303170433971</v>
+        <v>75.35303170433973</v>
       </c>
       <c r="J44" t="n">
         <v>165.8905226539447</v>
       </c>
       <c r="K44" t="n">
-        <v>248.626890776497</v>
+        <v>248.6268907764971</v>
       </c>
       <c r="L44" t="n">
-        <v>308.4436431018115</v>
+        <v>308.4436431018116</v>
       </c>
       <c r="M44" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782217</v>
       </c>
       <c r="N44" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O44" t="n">
-        <v>329.3207475669429</v>
+        <v>329.320747566943</v>
       </c>
       <c r="P44" t="n">
-        <v>281.067638943614</v>
+        <v>281.0676389436141</v>
       </c>
       <c r="Q44" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976206</v>
       </c>
       <c r="R44" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S44" t="n">
-        <v>44.53945165586256</v>
+        <v>44.53945165586257</v>
       </c>
       <c r="T44" t="n">
-        <v>8.55607019741254</v>
+        <v>8.556070197412541</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1563645038933187</v>
+        <v>0.1563645038933188</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,40 +34447,40 @@
         <v>36.00601558917278</v>
       </c>
       <c r="J45" t="n">
-        <v>98.80325882883703</v>
+        <v>98.80325882883707</v>
       </c>
       <c r="K45" t="n">
-        <v>168.8705064900094</v>
+        <v>168.8705064900095</v>
       </c>
       <c r="L45" t="n">
-        <v>227.0672358907004</v>
+        <v>227.0672358907005</v>
       </c>
       <c r="M45" t="n">
-        <v>264.9767542148421</v>
+        <v>264.9767542148422</v>
       </c>
       <c r="N45" t="n">
-        <v>271.9899004359689</v>
+        <v>271.989900435969</v>
       </c>
       <c r="O45" t="n">
-        <v>248.8176213587077</v>
+        <v>248.8176213587078</v>
       </c>
       <c r="P45" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.4928761410553</v>
+        <v>133.4928761410554</v>
       </c>
       <c r="R45" t="n">
-        <v>64.93008365354521</v>
+        <v>64.93008365354524</v>
       </c>
       <c r="S45" t="n">
         <v>19.42490140384033</v>
       </c>
       <c r="T45" t="n">
-        <v>4.215226538401244</v>
+        <v>4.215226538401245</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06880130367357856</v>
+        <v>0.06880130367357859</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,28 +34517,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8767466675780609</v>
+        <v>0.8767466675780611</v>
       </c>
       <c r="H46" t="n">
-        <v>7.795074917194038</v>
+        <v>7.79507491719404</v>
       </c>
       <c r="I46" t="n">
-        <v>26.36616342134751</v>
+        <v>26.36616342134752</v>
       </c>
       <c r="J46" t="n">
-        <v>61.9859893977689</v>
+        <v>61.98598939776892</v>
       </c>
       <c r="K46" t="n">
-        <v>101.8620219240692</v>
+        <v>101.8620219240693</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M46" t="n">
         <v>137.4340253549864</v>
       </c>
       <c r="N46" t="n">
-        <v>134.1661514121955</v>
+        <v>134.1661514121956</v>
       </c>
       <c r="O46" t="n">
         <v>123.9241562500336</v>
@@ -34547,19 +34547,19 @@
         <v>106.0385242314411</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.41557777328653</v>
+        <v>73.41557777328656</v>
       </c>
       <c r="R46" t="n">
-        <v>39.42171834400989</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S46" t="n">
-        <v>15.27930328861038</v>
+        <v>15.27930328861039</v>
       </c>
       <c r="T46" t="n">
-        <v>3.746099397833532</v>
+        <v>3.746099397833533</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04782254550425792</v>
+        <v>0.04782254550425794</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>78.1921444955037</v>
       </c>
       <c r="K12" t="n">
-        <v>146.4712726566761</v>
+        <v>440.7140314831551</v>
       </c>
       <c r="L12" t="n">
         <v>204.5521491764708</v>
       </c>
       <c r="M12" t="n">
-        <v>262.5669339980649</v>
+        <v>241.8799737025141</v>
       </c>
       <c r="N12" t="n">
-        <v>524.2026707533555</v>
+        <v>250.6468722224272</v>
       </c>
       <c r="O12" t="n">
         <v>225.6457316364854</v>
@@ -35576,7 +35576,7 @@
         <v>488.6203599076416</v>
       </c>
       <c r="M13" t="n">
-        <v>170.2545878638631</v>
+        <v>114.8585854635005</v>
       </c>
       <c r="N13" t="n">
         <v>113.4172504365951</v>
@@ -35588,7 +35588,7 @@
         <v>399.5730817283107</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.79601500850158</v>
+        <v>104.1920174088651</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>19.83362883917277</v>
       </c>
       <c r="J15" t="n">
-        <v>78.1921444955037</v>
+        <v>372.4349033219827</v>
       </c>
       <c r="K15" t="n">
         <v>146.4712726566761</v>
@@ -35734,10 +35734,10 @@
         <v>204.5521491764708</v>
       </c>
       <c r="M15" t="n">
-        <v>262.5669339980647</v>
+        <v>241.8799737025141</v>
       </c>
       <c r="N15" t="n">
-        <v>524.2026707533557</v>
+        <v>250.6468722224272</v>
       </c>
       <c r="O15" t="n">
         <v>225.6457316364854</v>
@@ -35807,25 +35807,25 @@
         <v>41.34923341386703</v>
       </c>
       <c r="K16" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135721</v>
       </c>
       <c r="L16" t="n">
-        <v>391.1138397040668</v>
+        <v>298.3145910034525</v>
       </c>
       <c r="M16" t="n">
-        <v>114.8585854635005</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4172504365951</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O16" t="n">
         <v>482.942468047774</v>
       </c>
       <c r="P16" t="n">
-        <v>399.5730817283107</v>
+        <v>83.65772357345456</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.69853761244</v>
+        <v>48.79601500850158</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J17" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K17" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816877</v>
       </c>
       <c r="L17" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M17" t="n">
-        <v>305.7717207787897</v>
+        <v>305.7717207787898</v>
       </c>
       <c r="N17" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O17" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P17" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q17" t="n">
         <v>174.9454168930224</v>
       </c>
       <c r="R17" t="n">
-        <v>87.74524720131217</v>
+        <v>87.7452472013122</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>19.83362883917277</v>
       </c>
       <c r="J18" t="n">
-        <v>372.4349033219827</v>
+        <v>372.4349033219823</v>
       </c>
       <c r="K18" t="n">
         <v>146.4712726566761</v>
       </c>
       <c r="L18" t="n">
-        <v>204.5521491764708</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M18" t="n">
         <v>241.8799737025141</v>
       </c>
       <c r="N18" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O18" t="n">
-        <v>225.6457316364854</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P18" t="n">
         <v>177.9272360845222</v>
@@ -35986,7 +35986,7 @@
         <v>110.7458378520768</v>
       </c>
       <c r="R18" t="n">
-        <v>41.25716425940107</v>
+        <v>41.25716425940108</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>120.0580381090396</v>
+        <v>41.34923341386704</v>
       </c>
       <c r="K19" t="n">
-        <v>193.4002931681605</v>
+        <v>330.6777807178441</v>
       </c>
       <c r="L19" t="n">
-        <v>488.6203599076416</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M19" t="n">
-        <v>524.2026707533557</v>
+        <v>524.2026707533556</v>
       </c>
       <c r="N19" t="n">
-        <v>515.4707078526358</v>
+        <v>456.9020249981241</v>
       </c>
       <c r="O19" t="n">
-        <v>101.4249687516091</v>
+        <v>101.4249687516092</v>
       </c>
       <c r="P19" t="n">
-        <v>83.65772357345456</v>
+        <v>83.65772357345459</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.79601500850158</v>
+        <v>48.7960150085016</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J20" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K20" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816877</v>
       </c>
       <c r="L20" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M20" t="n">
-        <v>305.7717207787897</v>
+        <v>305.7717207787898</v>
       </c>
       <c r="N20" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O20" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P20" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q20" t="n">
         <v>174.9454168930224</v>
       </c>
       <c r="R20" t="n">
-        <v>87.74524720131217</v>
+        <v>87.7452472013122</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>43.5278771668615</v>
       </c>
       <c r="J21" t="n">
-        <v>78.1921444955037</v>
+        <v>242.2199476358031</v>
       </c>
       <c r="K21" t="n">
-        <v>310.4990757969756</v>
+        <v>146.4712726566761</v>
       </c>
       <c r="L21" t="n">
-        <v>204.5521491764708</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M21" t="n">
         <v>241.8799737025141</v>
       </c>
       <c r="N21" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O21" t="n">
-        <v>225.6457316364854</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P21" t="n">
         <v>177.9272360845222</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.0580381090396</v>
+        <v>41.34923341386704</v>
       </c>
       <c r="K22" t="n">
         <v>330.6777807178441</v>
       </c>
       <c r="L22" t="n">
-        <v>488.6203599076416</v>
+        <v>134.6722770181499</v>
       </c>
       <c r="M22" t="n">
-        <v>114.8585854635005</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="N22" t="n">
-        <v>113.4172504365951</v>
+        <v>113.4172504365952</v>
       </c>
       <c r="O22" t="n">
-        <v>306.7271431490257</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P22" t="n">
         <v>399.5730817283107</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.69853761244</v>
+        <v>48.7960150085016</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J23" t="n">
         <v>136.4705631683581</v>
@@ -36372,10 +36372,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O23" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P23" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q23" t="n">
         <v>174.9454168930224</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.83362883917277</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J24" t="n">
-        <v>78.1921444955037</v>
+        <v>242.2199476358032</v>
       </c>
       <c r="K24" t="n">
         <v>146.4712726566761</v>
@@ -36448,7 +36448,7 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N24" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O24" t="n">
         <v>225.6457316364854</v>
@@ -36457,7 +36457,7 @@
         <v>177.9272360845222</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.4678893200653</v>
+        <v>110.7458378520768</v>
       </c>
       <c r="R24" t="n">
         <v>147.7778716178918</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>96.74523581423057</v>
+        <v>41.34923341386703</v>
       </c>
       <c r="K25" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135723</v>
       </c>
       <c r="L25" t="n">
-        <v>488.6203599076416</v>
+        <v>391.7433181384513</v>
       </c>
       <c r="M25" t="n">
-        <v>114.8585854635005</v>
+        <v>114.8585854635006</v>
       </c>
       <c r="N25" t="n">
-        <v>113.4172504365951</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O25" t="n">
-        <v>482.942468047774</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P25" t="n">
         <v>399.5730817283107</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J26" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816877</v>
       </c>
       <c r="L26" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M26" t="n">
-        <v>305.7717207787897</v>
+        <v>305.7717207787898</v>
       </c>
       <c r="N26" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O26" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P26" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q26" t="n">
         <v>174.9454168930224</v>
       </c>
       <c r="R26" t="n">
-        <v>87.74524720131217</v>
+        <v>87.7452472013122</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>19.83362883917277</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J27" t="n">
-        <v>372.4349033219827</v>
+        <v>242.2199476358031</v>
       </c>
       <c r="K27" t="n">
         <v>146.4712726566761</v>
       </c>
       <c r="L27" t="n">
-        <v>204.5521491764708</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M27" t="n">
         <v>241.8799737025141</v>
       </c>
       <c r="N27" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O27" t="n">
-        <v>225.6457316364854</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P27" t="n">
         <v>177.9272360845222</v>
@@ -36697,7 +36697,7 @@
         <v>110.7458378520768</v>
       </c>
       <c r="R27" t="n">
-        <v>41.25716425940107</v>
+        <v>147.7778716178918</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>41.34923341386703</v>
+        <v>47.05599401173695</v>
       </c>
       <c r="K28" t="n">
-        <v>80.89736747135721</v>
+        <v>330.6777807178441</v>
       </c>
       <c r="L28" t="n">
-        <v>298.3145910034522</v>
+        <v>108.4295583004044</v>
       </c>
       <c r="M28" t="n">
-        <v>524.2026707533556</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="N28" t="n">
         <v>515.4707078526358</v>
       </c>
       <c r="O28" t="n">
-        <v>482.942468047774</v>
+        <v>101.4249687516092</v>
       </c>
       <c r="P28" t="n">
-        <v>83.65772357345456</v>
+        <v>399.5730817283107</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.79601500850158</v>
+        <v>48.7960150085016</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J29" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816877</v>
       </c>
       <c r="L29" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M29" t="n">
-        <v>305.7717207787897</v>
+        <v>305.7717207787898</v>
       </c>
       <c r="N29" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O29" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P29" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q29" t="n">
         <v>174.9454168930224</v>
       </c>
       <c r="R29" t="n">
-        <v>87.74524720131217</v>
+        <v>87.7452472013122</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>19.83362883917277</v>
       </c>
       <c r="J30" t="n">
-        <v>372.4349033219827</v>
+        <v>78.19214449550371</v>
       </c>
       <c r="K30" t="n">
-        <v>146.4712726566761</v>
+        <v>440.7140314831548</v>
       </c>
       <c r="L30" t="n">
-        <v>204.5521491764708</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M30" t="n">
         <v>241.8799737025141</v>
       </c>
       <c r="N30" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O30" t="n">
-        <v>225.6457316364854</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P30" t="n">
         <v>177.9272360845222</v>
@@ -36934,7 +36934,7 @@
         <v>110.7458378520768</v>
       </c>
       <c r="R30" t="n">
-        <v>41.25716425940107</v>
+        <v>41.25716425940108</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.34923341386703</v>
+        <v>41.34923341386704</v>
       </c>
       <c r="K31" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135724</v>
       </c>
       <c r="L31" t="n">
-        <v>277.1491544491923</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M31" t="n">
         <v>524.2026707533557</v>
       </c>
       <c r="N31" t="n">
-        <v>515.4707078526358</v>
+        <v>325.1649389484465</v>
       </c>
       <c r="O31" t="n">
-        <v>101.4249687516091</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P31" t="n">
-        <v>83.65772357345456</v>
+        <v>83.65772357345459</v>
       </c>
       <c r="Q31" t="n">
-        <v>201.69853761244</v>
+        <v>48.7960150085016</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J32" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816877</v>
       </c>
       <c r="L32" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M32" t="n">
-        <v>305.7717207787897</v>
+        <v>305.7717207787898</v>
       </c>
       <c r="N32" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O32" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P32" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q32" t="n">
         <v>174.9454168930224</v>
       </c>
       <c r="R32" t="n">
-        <v>87.74524720131217</v>
+        <v>87.7452472013122</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.83362883917277</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J33" t="n">
-        <v>78.1921444955037</v>
+        <v>242.2199476358031</v>
       </c>
       <c r="K33" t="n">
-        <v>440.7140314831551</v>
+        <v>146.4712726566761</v>
       </c>
       <c r="L33" t="n">
-        <v>204.5521491764708</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M33" t="n">
         <v>241.8799737025141</v>
       </c>
       <c r="N33" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O33" t="n">
-        <v>225.6457316364854</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P33" t="n">
         <v>177.9272360845222</v>
@@ -37171,7 +37171,7 @@
         <v>110.7458378520768</v>
       </c>
       <c r="R33" t="n">
-        <v>41.25716425940107</v>
+        <v>147.7778716178918</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.34923341386703</v>
+        <v>41.34923341386704</v>
       </c>
       <c r="K34" t="n">
-        <v>80.89736747135721</v>
+        <v>80.89736747135724</v>
       </c>
       <c r="L34" t="n">
         <v>298.3145910034525</v>
@@ -37241,13 +37241,13 @@
         <v>515.4707078526358</v>
       </c>
       <c r="O34" t="n">
-        <v>482.942468047774</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P34" t="n">
-        <v>83.65772357345456</v>
+        <v>83.65772357345459</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.79601500850158</v>
+        <v>48.7960150085016</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J35" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K35" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816877</v>
       </c>
       <c r="L35" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M35" t="n">
-        <v>305.7717207787897</v>
+        <v>305.7717207787898</v>
       </c>
       <c r="N35" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O35" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P35" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q35" t="n">
         <v>174.9454168930224</v>
       </c>
       <c r="R35" t="n">
-        <v>87.74524720131217</v>
+        <v>87.7452472013122</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.83362883917277</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J36" t="n">
-        <v>78.1921444955037</v>
+        <v>242.2199476358031</v>
       </c>
       <c r="K36" t="n">
         <v>146.4712726566761</v>
       </c>
       <c r="L36" t="n">
-        <v>225.2391094720214</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M36" t="n">
         <v>241.8799737025141</v>
       </c>
       <c r="N36" t="n">
-        <v>524.2026707533557</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O36" t="n">
-        <v>225.6457316364854</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P36" t="n">
         <v>177.9272360845222</v>
@@ -37408,7 +37408,7 @@
         <v>110.7458378520768</v>
       </c>
       <c r="R36" t="n">
-        <v>41.25716425940107</v>
+        <v>147.7778716178918</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,19 +37466,19 @@
         <v>120.0580381090396</v>
       </c>
       <c r="K37" t="n">
-        <v>80.89736747135721</v>
+        <v>330.6777807178441</v>
       </c>
       <c r="L37" t="n">
-        <v>488.6203599076416</v>
+        <v>108.4295583004044</v>
       </c>
       <c r="M37" t="n">
-        <v>188.42367381124</v>
+        <v>298.2981040521148</v>
       </c>
       <c r="N37" t="n">
-        <v>113.4172504365951</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O37" t="n">
-        <v>482.942468047774</v>
+        <v>101.4249687516092</v>
       </c>
       <c r="P37" t="n">
         <v>399.5730817283107</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037623</v>
       </c>
       <c r="J38" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K38" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816878</v>
       </c>
       <c r="L38" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M38" t="n">
-        <v>305.7717207787897</v>
+        <v>305.7717207787899</v>
       </c>
       <c r="N38" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O38" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109189</v>
       </c>
       <c r="P38" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333828</v>
       </c>
       <c r="Q38" t="n">
-        <v>174.9454168930224</v>
+        <v>174.9454168930225</v>
       </c>
       <c r="R38" t="n">
-        <v>87.74524720131217</v>
+        <v>87.74524720131222</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.83362883917277</v>
+        <v>43.52787716686151</v>
       </c>
       <c r="J39" t="n">
-        <v>78.1921444955037</v>
+        <v>242.2199476358027</v>
       </c>
       <c r="K39" t="n">
         <v>146.4712726566761</v>
       </c>
       <c r="L39" t="n">
-        <v>204.5521491764708</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M39" t="n">
-        <v>241.8799737025141</v>
+        <v>241.8799737025142</v>
       </c>
       <c r="N39" t="n">
-        <v>524.2026707533557</v>
+        <v>250.6468722224274</v>
       </c>
       <c r="O39" t="n">
-        <v>246.3326919320363</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P39" t="n">
-        <v>177.9272360845222</v>
+        <v>177.9272360845223</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.7458378520768</v>
+        <v>110.7458378520769</v>
       </c>
       <c r="R39" t="n">
-        <v>41.25716425940107</v>
+        <v>147.7778716178918</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.34923341386703</v>
+        <v>41.34923341386705</v>
       </c>
       <c r="K40" t="n">
-        <v>80.89736747135721</v>
+        <v>292.6450559832087</v>
       </c>
       <c r="L40" t="n">
-        <v>298.3145910034525</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M40" t="n">
-        <v>524.2026707533557</v>
+        <v>524.2026707533558</v>
       </c>
       <c r="N40" t="n">
-        <v>515.4707078526358</v>
+        <v>113.4172504365952</v>
       </c>
       <c r="O40" t="n">
-        <v>482.942468047774</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P40" t="n">
-        <v>83.65772357345456</v>
+        <v>83.65772357345462</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.79601500850158</v>
+        <v>48.79601500850161</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.80512916037621</v>
+        <v>40.80512916037645</v>
       </c>
       <c r="J41" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K41" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816878</v>
       </c>
       <c r="L41" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M41" t="n">
-        <v>305.7717207787897</v>
+        <v>305.7717207787899</v>
       </c>
       <c r="N41" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O41" t="n">
-        <v>291.9297882109188</v>
+        <v>291.9297882109189</v>
       </c>
       <c r="P41" t="n">
         <v>243.4922771333828</v>
       </c>
       <c r="Q41" t="n">
-        <v>174.9454168930224</v>
+        <v>174.9454168930225</v>
       </c>
       <c r="R41" t="n">
-        <v>87.74524720131217</v>
+        <v>87.74524720131222</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.83362883917277</v>
+        <v>43.52787716686151</v>
       </c>
       <c r="J42" t="n">
-        <v>372.4349033219826</v>
+        <v>242.2199476358027</v>
       </c>
       <c r="K42" t="n">
         <v>146.4712726566761</v>
       </c>
       <c r="L42" t="n">
-        <v>204.5521491764708</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M42" t="n">
-        <v>241.8799737025141</v>
+        <v>241.8799737025142</v>
       </c>
       <c r="N42" t="n">
-        <v>250.6468722224273</v>
+        <v>250.6468722224274</v>
       </c>
       <c r="O42" t="n">
-        <v>225.6457316364854</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P42" t="n">
-        <v>177.9272360845222</v>
+        <v>177.9272360845223</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.7458378520768</v>
+        <v>110.7458378520769</v>
       </c>
       <c r="R42" t="n">
-        <v>41.25716425940107</v>
+        <v>147.7778716178918</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.0580381090396</v>
+        <v>41.34923341386705</v>
       </c>
       <c r="K43" t="n">
-        <v>80.89736747135723</v>
+        <v>80.89736747135727</v>
       </c>
       <c r="L43" t="n">
-        <v>488.6203599076417</v>
+        <v>298.3145910034526</v>
       </c>
       <c r="M43" t="n">
-        <v>114.8585854635006</v>
+        <v>524.2026707533558</v>
       </c>
       <c r="N43" t="n">
         <v>515.4707078526358</v>
@@ -37955,10 +37955,10 @@
         <v>482.9424680477741</v>
       </c>
       <c r="P43" t="n">
-        <v>83.65772357345458</v>
+        <v>83.65772357345462</v>
       </c>
       <c r="Q43" t="n">
-        <v>189.1255266989947</v>
+        <v>48.79601500850161</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.80512916037621</v>
+        <v>40.80512916037623</v>
       </c>
       <c r="J44" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K44" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816878</v>
       </c>
       <c r="L44" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M44" t="n">
-        <v>305.7717207787897</v>
+        <v>305.7717207787899</v>
       </c>
       <c r="N44" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O44" t="n">
-        <v>291.9297882109188</v>
+        <v>291.9297882109189</v>
       </c>
       <c r="P44" t="n">
-        <v>243.4922771333827</v>
+        <v>243.4922771333828</v>
       </c>
       <c r="Q44" t="n">
-        <v>174.9454168930224</v>
+        <v>174.9454168930226</v>
       </c>
       <c r="R44" t="n">
-        <v>87.74524720131217</v>
+        <v>87.74524720131222</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>43.5278771668615</v>
+        <v>43.52787716686151</v>
       </c>
       <c r="J45" t="n">
-        <v>78.1921444955037</v>
+        <v>242.2199476358027</v>
       </c>
       <c r="K45" t="n">
         <v>146.4712726566761</v>
       </c>
       <c r="L45" t="n">
-        <v>204.5521491764708</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M45" t="n">
-        <v>241.8799737025141</v>
+        <v>241.8799737025142</v>
       </c>
       <c r="N45" t="n">
-        <v>414.6746753627268</v>
+        <v>250.6468722224274</v>
       </c>
       <c r="O45" t="n">
-        <v>225.6457316364854</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P45" t="n">
-        <v>177.9272360845222</v>
+        <v>177.9272360845223</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.7458378520768</v>
+        <v>110.7458378520769</v>
       </c>
       <c r="R45" t="n">
         <v>147.7778716178918</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.34923341386703</v>
+        <v>120.0580381090396</v>
       </c>
       <c r="K46" t="n">
-        <v>330.6777807178441</v>
+        <v>330.6777807178442</v>
       </c>
       <c r="L46" t="n">
         <v>488.6203599076417</v>
       </c>
       <c r="M46" t="n">
-        <v>524.2026707533556</v>
+        <v>114.8585854635006</v>
       </c>
       <c r="N46" t="n">
-        <v>113.4172504365951</v>
+        <v>113.4172504365952</v>
       </c>
       <c r="O46" t="n">
-        <v>444.9097433131381</v>
+        <v>306.7271431490266</v>
       </c>
       <c r="P46" t="n">
-        <v>83.65772357345458</v>
+        <v>399.5730817283108</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.79601500850158</v>
+        <v>201.69853761244</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
